--- a/Organizations.xlsx
+++ b/Organizations.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="484">
   <si>
     <t>Номер</t>
   </si>
@@ -110,6 +110,15 @@
     <t>г.Самара, ул.Партизанская,196</t>
   </si>
   <si>
+    <t>ЖСК №174</t>
+  </si>
+  <si>
+    <t>gsk_174@mail.ru</t>
+  </si>
+  <si>
+    <t>г.Самара, ул. Ново-Садовая, 42</t>
+  </si>
+  <si>
     <t>ЖСК №199</t>
   </si>
   <si>
@@ -134,6 +143,15 @@
     <t>г.Самара, пр-кт Кирова, 196</t>
   </si>
   <si>
+    <t>ЖСК №223</t>
+  </si>
+  <si>
+    <t>la-delo@yandex.ru</t>
+  </si>
+  <si>
+    <t>г.Самара, пр-кт.Карла-Маркса, д. 471</t>
+  </si>
+  <si>
     <t>ЖСК №224</t>
   </si>
   <si>
@@ -257,6 +275,15 @@
     <t>г.Самара, ул.Революционная, 125</t>
   </si>
   <si>
+    <t>ЖСК-293</t>
+  </si>
+  <si>
+    <t>zarat56@mail.ru</t>
+  </si>
+  <si>
+    <t>г.Самара, ул.Енисейская,60</t>
+  </si>
+  <si>
     <t>ЖСК-295</t>
   </si>
   <si>
@@ -770,6 +797,15 @@
     <t>г.Самара, пр-кт Кирова, 315</t>
   </si>
   <si>
+    <t>ТСЖ "Киевская-Тухачевского"</t>
+  </si>
+  <si>
+    <t>KTtszh@yandex.ru</t>
+  </si>
+  <si>
+    <t>г.Самара, ул.Тухачевского, 88</t>
+  </si>
+  <si>
     <t>ТСЖ "Кирова 435"</t>
   </si>
   <si>
@@ -845,12 +881,30 @@
     <t>г.Самара, ул. Советской Армии, 98</t>
   </si>
   <si>
+    <t>ТСЖ "Луч"</t>
+  </si>
+  <si>
+    <t>tsg-at87@yandex.ru</t>
+  </si>
+  <si>
+    <t>г.Самара, ул.Алексея Толстого, 87/8</t>
+  </si>
+  <si>
     <t>ТСЖ "Люкс Комфорт"</t>
   </si>
   <si>
     <t>г.Самара, ул.Стара-Загора, 205, кв.3</t>
   </si>
   <si>
+    <t>ТСЖ "Магнат-4"</t>
+  </si>
+  <si>
+    <t>magnat.4@ya</t>
+  </si>
+  <si>
+    <t>г.Самара, ул.Советской Армии,192</t>
+  </si>
+  <si>
     <t>ТСЖ "Майское"</t>
   </si>
   <si>
@@ -977,6 +1031,15 @@
     <t>г.Самара, ул.Вольская, 83</t>
   </si>
   <si>
+    <t>ТСЖ "Премьер 137"</t>
+  </si>
+  <si>
+    <t>Premier137@gmail.ru</t>
+  </si>
+  <si>
+    <t>г.Самара, ул.Пушкина, 223</t>
+  </si>
+  <si>
     <t>ТСЖ "Приволжское"</t>
   </si>
   <si>
@@ -1082,6 +1145,18 @@
     <t>г.Самара, пр-кт Карла Маркса, 272 Б</t>
   </si>
   <si>
+    <t>ТСЖ "Седьмое небо"</t>
+  </si>
+  <si>
+    <t>Самарская область</t>
+  </si>
+  <si>
+    <t>tsg-7nebo@yandex.ru</t>
+  </si>
+  <si>
+    <t>г.Самара, ул. Осипенко, 3</t>
+  </si>
+  <si>
     <t>ТСЖ "Серебряный ручей"</t>
   </si>
   <si>
@@ -1283,6 +1358,15 @@
     <t>г.Самара, ул. Вольская, 81</t>
   </si>
   <si>
+    <t>ТСЖ "Февраль"</t>
+  </si>
+  <si>
+    <t>tcg.fbr@gmail.com</t>
+  </si>
+  <si>
+    <t>г.Самара, пр-кт Ленина, 8</t>
+  </si>
+  <si>
     <t>ТСЖ "Шверника, 19А"</t>
   </si>
   <si>
@@ -1383,6 +1467,9 @@
   </si>
   <si>
     <t>Волгоград</t>
+  </si>
+  <si>
+    <t>sapaev-a@mail.ru</t>
   </si>
   <si>
     <t>г.Волгоград, ул.Маршала Чуйкова,55</t>
@@ -1725,7 +1812,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M162"/>
+  <dimension ref="A1:M171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1735,7 +1822,7 @@
     <col min="2" max="3" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="50" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.83203125" bestFit="1" customWidth="1"/>
@@ -1937,7 +2024,7 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6">
-        <v>184</v>
+        <v>428</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -1958,7 +2045,7 @@
         <v>3</v>
       </c>
       <c r="H6">
-        <v>88469598311</v>
+        <v>88463340689</v>
       </c>
       <c r="J6" t="s">
         <v>30</v>
@@ -1975,7 +2062,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7">
-        <v>486</v>
+        <v>184</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1996,7 +2083,7 @@
         <v>3</v>
       </c>
       <c r="H7">
-        <v>89277083530</v>
+        <v>88469598311</v>
       </c>
       <c r="J7" t="s">
         <v>33</v>
@@ -2013,7 +2100,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8">
-        <v>275</v>
+        <v>486</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -2034,10 +2121,13 @@
         <v>3</v>
       </c>
       <c r="H8">
-        <v>89277019702</v>
+        <v>89277083530</v>
+      </c>
+      <c r="J8" t="s">
+        <v>36</v>
       </c>
       <c r="K8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L8" t="s">
         <v>17</v>
@@ -2048,7 +2138,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9">
-        <v>430</v>
+        <v>275</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -2057,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -2069,10 +2159,7 @@
         <v>3</v>
       </c>
       <c r="H9">
-        <v>88462023042</v>
-      </c>
-      <c r="J9" t="s">
-        <v>38</v>
+        <v>89277019702</v>
       </c>
       <c r="K9" t="s">
         <v>39</v>
@@ -2086,7 +2173,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10">
-        <v>252</v>
+        <v>757</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -2107,7 +2194,7 @@
         <v>3</v>
       </c>
       <c r="H10">
-        <v>88462451836</v>
+        <v>89297039079</v>
       </c>
       <c r="J10" t="s">
         <v>41</v>
@@ -2124,7 +2211,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11">
-        <v>753</v>
+        <v>430</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -2145,7 +2232,7 @@
         <v>3</v>
       </c>
       <c r="H11">
-        <v>89649807290</v>
+        <v>88462023042</v>
       </c>
       <c r="J11" t="s">
         <v>44</v>
@@ -2162,7 +2249,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12">
-        <v>646</v>
+        <v>252</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -2183,7 +2270,7 @@
         <v>3</v>
       </c>
       <c r="H12">
-        <v>89277317059</v>
+        <v>88462451836</v>
       </c>
       <c r="J12" t="s">
         <v>47</v>
@@ -2200,7 +2287,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13">
-        <v>278</v>
+        <v>753</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -2221,7 +2308,7 @@
         <v>3</v>
       </c>
       <c r="H13">
-        <v>89276500308</v>
+        <v>89649807290</v>
       </c>
       <c r="J13" t="s">
         <v>50</v>
@@ -2238,7 +2325,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14">
-        <v>65</v>
+        <v>646</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -2259,10 +2346,13 @@
         <v>3</v>
       </c>
       <c r="H14">
-        <v>88462519913</v>
+        <v>89277317059</v>
+      </c>
+      <c r="J14" t="s">
+        <v>53</v>
       </c>
       <c r="K14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -2273,7 +2363,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15">
-        <v>563</v>
+        <v>278</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -2282,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -2294,13 +2384,13 @@
         <v>3</v>
       </c>
       <c r="H15">
-        <v>88469301979</v>
+        <v>89276500308</v>
       </c>
       <c r="J15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L15" t="s">
         <v>17</v>
@@ -2311,7 +2401,7 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16">
-        <v>175</v>
+        <v>65</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -2320,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -2332,13 +2422,10 @@
         <v>3</v>
       </c>
       <c r="H16">
-        <v>89033021816</v>
-      </c>
-      <c r="J16" t="s">
-        <v>30</v>
+        <v>88462519913</v>
       </c>
       <c r="K16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L16" t="s">
         <v>17</v>
@@ -2349,7 +2436,7 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17">
-        <v>177</v>
+        <v>563</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -2358,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -2370,13 +2457,13 @@
         <v>3</v>
       </c>
       <c r="H17">
-        <v>89047453769</v>
+        <v>88469301979</v>
       </c>
       <c r="J17" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="K17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L17" t="s">
         <v>17</v>
@@ -2387,7 +2474,7 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -2396,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
@@ -2408,13 +2495,13 @@
         <v>3</v>
       </c>
       <c r="H18">
-        <v>88469727346</v>
+        <v>89033021816</v>
       </c>
       <c r="J18" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="K18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L18" t="s">
         <v>17</v>
@@ -2425,7 +2512,7 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -2434,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
@@ -2446,10 +2533,10 @@
         <v>3</v>
       </c>
       <c r="H19">
-        <v>8462178427</v>
+        <v>89047453769</v>
       </c>
       <c r="J19" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="K19" t="s">
         <v>66</v>
@@ -2463,7 +2550,7 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20">
-        <v>537</v>
+        <v>192</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -2484,7 +2571,7 @@
         <v>3</v>
       </c>
       <c r="H20">
-        <v>89276570460</v>
+        <v>88469727346</v>
       </c>
       <c r="J20" t="s">
         <v>68</v>
@@ -2501,7 +2588,7 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21">
-        <v>298</v>
+        <v>189</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -2522,10 +2609,13 @@
         <v>3</v>
       </c>
       <c r="H21">
-        <v>89276859226</v>
+        <v>8462178427</v>
+      </c>
+      <c r="J21" t="s">
+        <v>71</v>
       </c>
       <c r="K21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L21" t="s">
         <v>17</v>
@@ -2536,7 +2626,7 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22">
-        <v>274</v>
+        <v>537</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -2545,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -2557,13 +2647,13 @@
         <v>3</v>
       </c>
       <c r="H22">
-        <v>89170152152</v>
+        <v>89276570460</v>
       </c>
       <c r="J22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L22" t="s">
         <v>17</v>
@@ -2574,7 +2664,7 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -2583,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -2595,10 +2685,7 @@
         <v>3</v>
       </c>
       <c r="H23">
-        <v>88462609029</v>
-      </c>
-      <c r="J23" t="s">
-        <v>76</v>
+        <v>89276859226</v>
       </c>
       <c r="K23" t="s">
         <v>77</v>
@@ -2612,7 +2699,7 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -2633,7 +2720,7 @@
         <v>3</v>
       </c>
       <c r="H24">
-        <v>88462453956</v>
+        <v>89170152152</v>
       </c>
       <c r="J24" t="s">
         <v>79</v>
@@ -2650,7 +2737,7 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25">
-        <v>514</v>
+        <v>216</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -2668,10 +2755,10 @@
         <v>15</v>
       </c>
       <c r="G25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H25">
-        <v>88463733337</v>
+        <v>88462609029</v>
       </c>
       <c r="J25" t="s">
         <v>82</v>
@@ -2683,12 +2770,12 @@
         <v>17</v>
       </c>
       <c r="M25" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -2697,36 +2784,36 @@
         <v>0</v>
       </c>
       <c r="D26" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>89270046357</v>
+      </c>
+      <c r="J26" t="s">
         <v>85</v>
       </c>
-      <c r="E26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="K26" t="s">
         <v>86</v>
       </c>
-      <c r="G26">
-        <v>2</v>
-      </c>
-      <c r="H26">
-        <v>88462427427</v>
-      </c>
-      <c r="J26" t="s">
-        <v>87</v>
-      </c>
-      <c r="K26" t="s">
-        <v>88</v>
-      </c>
       <c r="L26" t="s">
         <v>17</v>
       </c>
       <c r="M26" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27">
-        <v>338</v>
+        <v>284</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -2735,25 +2822,25 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <v>88462453956</v>
+      </c>
+      <c r="J27" t="s">
+        <v>88</v>
+      </c>
+      <c r="K27" t="s">
         <v>89</v>
-      </c>
-      <c r="E27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27">
-        <v>3</v>
-      </c>
-      <c r="H27">
-        <v>89371762533</v>
-      </c>
-      <c r="J27" t="s">
-        <v>90</v>
-      </c>
-      <c r="K27" t="s">
-        <v>91</v>
       </c>
       <c r="L27" t="s">
         <v>17</v>
@@ -2764,7 +2851,7 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28">
-        <v>579</v>
+        <v>514</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -2773,39 +2860,36 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+      <c r="H28">
+        <v>88463733337</v>
+      </c>
+      <c r="J28" t="s">
+        <v>91</v>
+      </c>
+      <c r="K28" t="s">
         <v>92</v>
       </c>
-      <c r="E28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28">
-        <v>3</v>
-      </c>
-      <c r="H28">
-        <v>88462629584</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="L28" t="s">
+        <v>17</v>
+      </c>
+      <c r="M28" t="s">
         <v>93</v>
-      </c>
-      <c r="J28" t="s">
-        <v>27</v>
-      </c>
-      <c r="K28" t="s">
-        <v>94</v>
-      </c>
-      <c r="L28" t="s">
-        <v>17</v>
-      </c>
-      <c r="M28" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29">
-        <v>392</v>
+        <v>502</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -2814,19 +2898,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s">
         <v>95</v>
       </c>
-      <c r="E29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" t="s">
-        <v>15</v>
-      </c>
       <c r="G29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H29">
-        <v>88462010501</v>
+        <v>88462427427</v>
       </c>
       <c r="J29" t="s">
         <v>96</v>
@@ -2838,12 +2922,12 @@
         <v>17</v>
       </c>
       <c r="M29" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30">
-        <v>731</v>
+        <v>338</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -2864,7 +2948,7 @@
         <v>3</v>
       </c>
       <c r="H30">
-        <v>8846634463</v>
+        <v>89371762533</v>
       </c>
       <c r="J30" t="s">
         <v>99</v>
@@ -2881,7 +2965,7 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31">
-        <v>397</v>
+        <v>579</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -2899,24 +2983,30 @@
         <v>15</v>
       </c>
       <c r="G31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H31">
-        <v>88462299109</v>
+        <v>88462629584</v>
+      </c>
+      <c r="I31" t="s">
+        <v>102</v>
+      </c>
+      <c r="J31" t="s">
+        <v>27</v>
       </c>
       <c r="K31" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L31" t="s">
         <v>17</v>
       </c>
       <c r="M31" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32">
-        <v>543</v>
+        <v>392</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -2937,7 +3027,7 @@
         <v>3</v>
       </c>
       <c r="H32">
-        <v>88463738657</v>
+        <v>88462010501</v>
       </c>
       <c r="J32" t="s">
         <v>105</v>
@@ -2954,13 +3044,13 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33">
-        <v>7</v>
+        <v>731</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="s">
         <v>107</v>
@@ -2975,10 +3065,7 @@
         <v>3</v>
       </c>
       <c r="H33">
-        <v>88463739588</v>
-      </c>
-      <c r="I33" t="s">
-        <v>93</v>
+        <v>8846634463</v>
       </c>
       <c r="J33" t="s">
         <v>108</v>
@@ -2990,53 +3077,53 @@
         <v>17</v>
       </c>
       <c r="M33" t="s">
-        <v>110</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34">
-        <v>16</v>
+        <v>397</v>
       </c>
       <c r="B34">
         <v>2</v>
       </c>
       <c r="C34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="s">
+        <v>110</v>
+      </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34">
+        <v>4</v>
+      </c>
+      <c r="H34">
+        <v>88462299109</v>
+      </c>
+      <c r="K34" t="s">
         <v>111</v>
       </c>
-      <c r="E34" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34">
-        <v>3</v>
-      </c>
-      <c r="H34">
-        <v>88462405005</v>
-      </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
+        <v>17</v>
+      </c>
+      <c r="M34" t="s">
         <v>112</v>
-      </c>
-      <c r="L34" t="s">
-        <v>17</v>
-      </c>
-      <c r="M34" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35">
-        <v>400</v>
+        <v>543</v>
       </c>
       <c r="B35">
         <v>2</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="s">
         <v>113</v>
@@ -3045,16 +3132,16 @@
         <v>14</v>
       </c>
       <c r="F35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+      <c r="H35">
+        <v>88463738657</v>
+      </c>
+      <c r="J35" t="s">
         <v>114</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>88462763003</v>
-      </c>
-      <c r="I35" t="s">
-        <v>93</v>
       </c>
       <c r="K35" t="s">
         <v>115</v>
@@ -3063,91 +3150,88 @@
         <v>17</v>
       </c>
       <c r="M35" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36">
-        <v>399</v>
+        <v>7</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="s">
+        <v>116</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36">
+        <v>3</v>
+      </c>
+      <c r="H36">
+        <v>88463739588</v>
+      </c>
+      <c r="I36" t="s">
+        <v>102</v>
+      </c>
+      <c r="J36" t="s">
         <v>117</v>
       </c>
-      <c r="E36" t="s">
+      <c r="K36" t="s">
         <v>118</v>
       </c>
-      <c r="F36" t="s">
-        <v>114</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>88482706540</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="L36" t="s">
+        <v>17</v>
+      </c>
+      <c r="M36" t="s">
         <v>119</v>
-      </c>
-      <c r="K36" t="s">
-        <v>120</v>
-      </c>
-      <c r="L36" t="s">
-        <v>17</v>
-      </c>
-      <c r="M36" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="B37">
         <v>2</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D37" t="s">
+        <v>120</v>
+      </c>
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+      <c r="H37">
+        <v>88462405005</v>
+      </c>
+      <c r="K37" t="s">
         <v>121</v>
       </c>
-      <c r="E37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" t="s">
-        <v>114</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>88462761919</v>
-      </c>
-      <c r="I37" t="s">
-        <v>122</v>
-      </c>
-      <c r="J37" t="s">
-        <v>123</v>
-      </c>
-      <c r="K37" t="s">
-        <v>124</v>
-      </c>
       <c r="L37" t="s">
         <v>17</v>
       </c>
       <c r="M37" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38">
-        <v>706</v>
+        <v>400</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -3156,36 +3240,36 @@
         <v>0</v>
       </c>
       <c r="D38" t="s">
+        <v>122</v>
+      </c>
+      <c r="E38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" t="s">
+        <v>123</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>88462763003</v>
+      </c>
+      <c r="I38" t="s">
+        <v>102</v>
+      </c>
+      <c r="K38" t="s">
+        <v>124</v>
+      </c>
+      <c r="L38" t="s">
+        <v>17</v>
+      </c>
+      <c r="M38" t="s">
         <v>125</v>
-      </c>
-      <c r="E38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38">
-        <v>4</v>
-      </c>
-      <c r="H38">
-        <v>88469936969</v>
-      </c>
-      <c r="J38" t="s">
-        <v>126</v>
-      </c>
-      <c r="K38" t="s">
-        <v>127</v>
-      </c>
-      <c r="L38" t="s">
-        <v>17</v>
-      </c>
-      <c r="M38" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39">
-        <v>723</v>
+        <v>399</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -3194,36 +3278,36 @@
         <v>0</v>
       </c>
       <c r="D39" t="s">
+        <v>126</v>
+      </c>
+      <c r="E39" t="s">
+        <v>127</v>
+      </c>
+      <c r="F39" t="s">
+        <v>123</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>88482706540</v>
+      </c>
+      <c r="I39" t="s">
+        <v>128</v>
+      </c>
+      <c r="K39" t="s">
         <v>129</v>
       </c>
-      <c r="E39" t="s">
-        <v>130</v>
-      </c>
-      <c r="F39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39">
-        <v>3</v>
-      </c>
-      <c r="H39">
-        <v>88463520227</v>
-      </c>
-      <c r="J39" t="s">
-        <v>131</v>
-      </c>
-      <c r="K39" t="s">
-        <v>132</v>
-      </c>
       <c r="L39" t="s">
         <v>17</v>
       </c>
       <c r="M39" t="s">
-        <v>22</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40">
-        <v>9</v>
+        <v>150</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -3232,33 +3316,39 @@
         <v>0</v>
       </c>
       <c r="D40" t="s">
+        <v>130</v>
+      </c>
+      <c r="E40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" t="s">
+        <v>123</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>88462761919</v>
+      </c>
+      <c r="I40" t="s">
+        <v>131</v>
+      </c>
+      <c r="J40" t="s">
+        <v>132</v>
+      </c>
+      <c r="K40" t="s">
         <v>133</v>
       </c>
-      <c r="E40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40">
-        <v>3</v>
-      </c>
-      <c r="H40">
-        <v>88463360509</v>
-      </c>
-      <c r="K40" t="s">
-        <v>134</v>
-      </c>
       <c r="L40" t="s">
         <v>17</v>
       </c>
       <c r="M40" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41">
-        <v>119</v>
+        <v>706</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -3267,19 +3357,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="s">
+        <v>134</v>
+      </c>
+      <c r="E41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <v>88469936969</v>
+      </c>
+      <c r="J41" t="s">
         <v>135</v>
-      </c>
-      <c r="E41" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41">
-        <v>3</v>
-      </c>
-      <c r="H41">
-        <v>88463100416</v>
       </c>
       <c r="K41" t="s">
         <v>136</v>
@@ -3288,12 +3381,12 @@
         <v>17</v>
       </c>
       <c r="M41" t="s">
-        <v>22</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42">
-        <v>14</v>
+        <v>723</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -3302,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E42" t="s">
-        <v>14</v>
+        <v>139</v>
       </c>
       <c r="F42" t="s">
         <v>15</v>
@@ -3314,10 +3407,13 @@
         <v>3</v>
       </c>
       <c r="H42">
-        <v>88469948181</v>
+        <v>88463520227</v>
+      </c>
+      <c r="J42" t="s">
+        <v>140</v>
       </c>
       <c r="K42" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="L42" t="s">
         <v>17</v>
@@ -3328,7 +3424,7 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -3337,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E43" t="s">
         <v>14</v>
@@ -3349,10 +3445,10 @@
         <v>3</v>
       </c>
       <c r="H43">
-        <v>88463370736</v>
+        <v>88463360509</v>
       </c>
       <c r="K43" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="L43" t="s">
         <v>17</v>
@@ -3363,7 +3459,7 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44">
-        <v>517</v>
+        <v>119</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -3372,39 +3468,33 @@
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E44" t="s">
         <v>14</v>
       </c>
       <c r="F44" t="s">
-        <v>114</v>
+        <v>15</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H44">
-        <v>88462120110</v>
-      </c>
-      <c r="I44" t="s">
-        <v>142</v>
-      </c>
-      <c r="J44" t="s">
-        <v>143</v>
+        <v>88463100416</v>
       </c>
       <c r="K44" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L44" t="s">
         <v>17</v>
       </c>
       <c r="M44" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45">
-        <v>156</v>
+        <v>14</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -3413,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E45" t="s">
         <v>14</v>
@@ -3425,13 +3515,7 @@
         <v>3</v>
       </c>
       <c r="H45">
-        <v>88462691371</v>
-      </c>
-      <c r="I45" t="s">
-        <v>93</v>
-      </c>
-      <c r="J45" t="s">
-        <v>146</v>
+        <v>88469948181</v>
       </c>
       <c r="K45" t="s">
         <v>147</v>
@@ -3440,12 +3524,12 @@
         <v>17</v>
       </c>
       <c r="M45" t="s">
-        <v>148</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46">
-        <v>404</v>
+        <v>18</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -3454,36 +3538,33 @@
         <v>0</v>
       </c>
       <c r="D46" t="s">
+        <v>148</v>
+      </c>
+      <c r="E46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46">
+        <v>3</v>
+      </c>
+      <c r="H46">
+        <v>88463370736</v>
+      </c>
+      <c r="K46" t="s">
         <v>149</v>
       </c>
-      <c r="E46" t="s">
-        <v>118</v>
-      </c>
-      <c r="F46" t="s">
-        <v>114</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>88482940051</v>
-      </c>
-      <c r="J46" t="s">
-        <v>150</v>
-      </c>
-      <c r="K46" t="s">
-        <v>151</v>
-      </c>
       <c r="L46" t="s">
         <v>17</v>
       </c>
       <c r="M46" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47">
-        <v>146</v>
+        <v>517</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -3492,39 +3573,39 @@
         <v>0</v>
       </c>
       <c r="D47" t="s">
+        <v>150</v>
+      </c>
+      <c r="E47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" t="s">
+        <v>123</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>88462120110</v>
+      </c>
+      <c r="I47" t="s">
+        <v>151</v>
+      </c>
+      <c r="J47" t="s">
         <v>152</v>
       </c>
-      <c r="E47" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" t="s">
-        <v>114</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>88463790012</v>
-      </c>
-      <c r="I47" t="s">
+      <c r="K47" t="s">
         <v>153</v>
       </c>
-      <c r="J47" t="s">
-        <v>154</v>
-      </c>
-      <c r="K47" t="s">
-        <v>155</v>
-      </c>
       <c r="L47" t="s">
         <v>17</v>
       </c>
       <c r="M47" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -3533,33 +3614,39 @@
         <v>0</v>
       </c>
       <c r="D48" t="s">
+        <v>154</v>
+      </c>
+      <c r="E48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+      <c r="H48">
+        <v>88462691371</v>
+      </c>
+      <c r="I48" t="s">
+        <v>102</v>
+      </c>
+      <c r="J48" t="s">
+        <v>155</v>
+      </c>
+      <c r="K48" t="s">
         <v>156</v>
       </c>
-      <c r="E48" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48">
-        <v>3</v>
-      </c>
-      <c r="H48">
-        <v>88462021444</v>
-      </c>
-      <c r="K48" t="s">
+      <c r="L48" t="s">
+        <v>17</v>
+      </c>
+      <c r="M48" t="s">
         <v>157</v>
-      </c>
-      <c r="L48" t="s">
-        <v>17</v>
-      </c>
-      <c r="M48" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49">
-        <v>17</v>
+        <v>404</v>
       </c>
       <c r="B49">
         <v>2</v>
@@ -3571,30 +3658,33 @@
         <v>158</v>
       </c>
       <c r="E49" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="F49" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="G49">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>88463311772</v>
+        <v>88482940051</v>
+      </c>
+      <c r="J49" t="s">
+        <v>159</v>
       </c>
       <c r="K49" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L49" t="s">
         <v>17</v>
       </c>
       <c r="M49" t="s">
-        <v>22</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="B50">
         <v>2</v>
@@ -3603,74 +3693,74 @@
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E50" t="s">
         <v>14</v>
       </c>
       <c r="F50" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="G50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>88469575454</v>
+        <v>88463790012</v>
+      </c>
+      <c r="I50" t="s">
+        <v>162</v>
+      </c>
+      <c r="J50" t="s">
+        <v>163</v>
       </c>
       <c r="K50" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L50" t="s">
         <v>17</v>
       </c>
       <c r="M50" t="s">
-        <v>22</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51">
-        <v>528</v>
+        <v>10</v>
       </c>
       <c r="B51">
         <v>2</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E51" t="s">
         <v>14</v>
       </c>
       <c r="F51" t="s">
-        <v>114</v>
+        <v>15</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H51">
-        <v>88462704311</v>
-      </c>
-      <c r="I51" t="s">
-        <v>163</v>
-      </c>
-      <c r="J51" t="s">
-        <v>164</v>
+        <v>88462021444</v>
       </c>
       <c r="K51" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L51" t="s">
         <v>17</v>
       </c>
       <c r="M51" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B52">
         <v>2</v>
@@ -3679,7 +3769,7 @@
         <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E52" t="s">
         <v>14</v>
@@ -3691,10 +3781,10 @@
         <v>3</v>
       </c>
       <c r="H52">
-        <v>88462300684</v>
+        <v>88463311772</v>
       </c>
       <c r="K52" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L52" t="s">
         <v>17</v>
@@ -3705,7 +3795,7 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53">
-        <v>280</v>
+        <v>23</v>
       </c>
       <c r="B53">
         <v>2</v>
@@ -3714,74 +3804,74 @@
         <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E53" t="s">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="F53" t="s">
-        <v>114</v>
+        <v>15</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H53">
-        <v>88482940051</v>
-      </c>
-      <c r="J53" t="s">
-        <v>150</v>
+        <v>88469575454</v>
       </c>
       <c r="K53" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L53" t="s">
         <v>17</v>
       </c>
       <c r="M53" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54">
-        <v>708</v>
+        <v>528</v>
       </c>
       <c r="B54">
         <v>2</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E54" t="s">
         <v>14</v>
       </c>
       <c r="F54" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54">
-        <v>88463734598</v>
+        <v>88462704311</v>
+      </c>
+      <c r="I54" t="s">
+        <v>172</v>
       </c>
       <c r="J54" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K54" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L54" t="s">
         <v>17</v>
       </c>
       <c r="M54" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55">
-        <v>401</v>
+        <v>26</v>
       </c>
       <c r="B55">
         <v>2</v>
@@ -3790,39 +3880,33 @@
         <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E55" t="s">
         <v>14</v>
       </c>
       <c r="F55" t="s">
-        <v>114</v>
+        <v>15</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H55">
-        <v>88463790011</v>
-      </c>
-      <c r="I55" t="s">
-        <v>153</v>
-      </c>
-      <c r="J55" t="s">
-        <v>171</v>
+        <v>88462300684</v>
       </c>
       <c r="K55" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L55" t="s">
         <v>17</v>
       </c>
       <c r="M55" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="B56">
         <v>2</v>
@@ -3831,36 +3915,36 @@
         <v>0</v>
       </c>
       <c r="D56" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E56" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="F56" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="G56">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>88462735462</v>
+        <v>88482940051</v>
       </c>
       <c r="J56" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="K56" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L56" t="s">
         <v>17</v>
       </c>
       <c r="M56" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57">
-        <v>32</v>
+        <v>708</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -3875,27 +3959,30 @@
         <v>14</v>
       </c>
       <c r="F57" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="G57">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>88462648053</v>
+        <v>88463734598</v>
+      </c>
+      <c r="J57" t="s">
+        <v>180</v>
       </c>
       <c r="K57" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L57" t="s">
         <v>17</v>
       </c>
       <c r="M57" t="s">
-        <v>22</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58">
-        <v>100</v>
+        <v>401</v>
       </c>
       <c r="B58">
         <v>2</v>
@@ -3904,33 +3991,39 @@
         <v>0</v>
       </c>
       <c r="D58" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E58" t="s">
         <v>14</v>
       </c>
       <c r="F58" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="G58">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>88462402080</v>
+        <v>88463790011</v>
+      </c>
+      <c r="I58" t="s">
+        <v>162</v>
+      </c>
+      <c r="J58" t="s">
+        <v>180</v>
       </c>
       <c r="K58" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L58" t="s">
         <v>17</v>
       </c>
       <c r="M58" t="s">
-        <v>22</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59">
-        <v>398</v>
+        <v>256</v>
       </c>
       <c r="B59">
         <v>2</v>
@@ -3939,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="D59" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E59" t="s">
         <v>14</v>
@@ -3951,21 +4044,24 @@
         <v>4</v>
       </c>
       <c r="H59">
-        <v>88462299108</v>
+        <v>88462735462</v>
+      </c>
+      <c r="J59" t="s">
+        <v>185</v>
       </c>
       <c r="K59" t="s">
-        <v>102</v>
+        <v>186</v>
       </c>
       <c r="L59" t="s">
         <v>17</v>
       </c>
       <c r="M59" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60">
-        <v>570</v>
+        <v>32</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -3974,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E60" t="s">
         <v>14</v>
@@ -3986,10 +4082,10 @@
         <v>3</v>
       </c>
       <c r="H60">
-        <v>88463329442</v>
+        <v>88462648053</v>
       </c>
       <c r="K60" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L60" t="s">
         <v>17</v>
@@ -4000,7 +4096,7 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -4009,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E61" t="s">
         <v>14</v>
@@ -4021,13 +4117,10 @@
         <v>3</v>
       </c>
       <c r="H61">
-        <v>88462450252</v>
-      </c>
-      <c r="J61" t="s">
-        <v>188</v>
+        <v>88462402080</v>
       </c>
       <c r="K61" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L61" t="s">
         <v>17</v>
@@ -4038,7 +4131,7 @@
     </row>
     <row r="62" spans="1:13">
       <c r="A62">
-        <v>719</v>
+        <v>398</v>
       </c>
       <c r="B62">
         <v>2</v>
@@ -4047,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D62" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E62" t="s">
         <v>14</v>
@@ -4056,27 +4149,24 @@
         <v>15</v>
       </c>
       <c r="G62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H62">
-        <v>88462626565</v>
-      </c>
-      <c r="J62" t="s">
-        <v>191</v>
+        <v>88462299108</v>
       </c>
       <c r="K62" t="s">
-        <v>192</v>
+        <v>111</v>
       </c>
       <c r="L62" t="s">
         <v>17</v>
       </c>
       <c r="M62" t="s">
-        <v>22</v>
+        <v>193</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63">
-        <v>676</v>
+        <v>570</v>
       </c>
       <c r="B63">
         <v>2</v>
@@ -4085,7 +4175,7 @@
         <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E63" t="s">
         <v>14</v>
@@ -4097,10 +4187,7 @@
         <v>3</v>
       </c>
       <c r="H63">
-        <v>88463091934</v>
-      </c>
-      <c r="J63" t="s">
-        <v>194</v>
+        <v>88463329442</v>
       </c>
       <c r="K63" t="s">
         <v>195</v>
@@ -4114,13 +4201,13 @@
     </row>
     <row r="64" spans="1:13">
       <c r="A64">
-        <v>435</v>
+        <v>72</v>
       </c>
       <c r="B64">
         <v>2</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64" t="s">
         <v>196</v>
@@ -4135,7 +4222,7 @@
         <v>3</v>
       </c>
       <c r="H64">
-        <v>8469586160</v>
+        <v>88462450252</v>
       </c>
       <c r="J64" t="s">
         <v>197</v>
@@ -4152,7 +4239,7 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65">
-        <v>262</v>
+        <v>719</v>
       </c>
       <c r="B65">
         <v>2</v>
@@ -4173,7 +4260,7 @@
         <v>3</v>
       </c>
       <c r="H65">
-        <v>89277130715</v>
+        <v>88462626565</v>
       </c>
       <c r="J65" t="s">
         <v>200</v>
@@ -4190,7 +4277,7 @@
     </row>
     <row r="66" spans="1:13">
       <c r="A66">
-        <v>712</v>
+        <v>676</v>
       </c>
       <c r="B66">
         <v>2</v>
@@ -4211,7 +4298,7 @@
         <v>3</v>
       </c>
       <c r="H66">
-        <v>88462659039</v>
+        <v>88463091934</v>
       </c>
       <c r="J66" t="s">
         <v>203</v>
@@ -4228,13 +4315,13 @@
     </row>
     <row r="67" spans="1:13">
       <c r="A67">
-        <v>123</v>
+        <v>435</v>
       </c>
       <c r="B67">
         <v>2</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" t="s">
         <v>205</v>
@@ -4249,10 +4336,13 @@
         <v>3</v>
       </c>
       <c r="H67">
-        <v>88462766105</v>
+        <v>8469586160</v>
+      </c>
+      <c r="J67" t="s">
+        <v>206</v>
       </c>
       <c r="K67" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L67" t="s">
         <v>17</v>
@@ -4263,7 +4353,7 @@
     </row>
     <row r="68" spans="1:13">
       <c r="A68">
-        <v>35</v>
+        <v>262</v>
       </c>
       <c r="B68">
         <v>2</v>
@@ -4272,7 +4362,7 @@
         <v>0</v>
       </c>
       <c r="D68" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E68" t="s">
         <v>14</v>
@@ -4284,13 +4374,13 @@
         <v>3</v>
       </c>
       <c r="H68">
-        <v>88462290942</v>
+        <v>89277130715</v>
       </c>
       <c r="J68" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K68" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L68" t="s">
         <v>17</v>
@@ -4301,7 +4391,7 @@
     </row>
     <row r="69" spans="1:13">
       <c r="A69">
-        <v>754</v>
+        <v>712</v>
       </c>
       <c r="B69">
         <v>2</v>
@@ -4310,7 +4400,7 @@
         <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E69" t="s">
         <v>14</v>
@@ -4322,13 +4412,13 @@
         <v>3</v>
       </c>
       <c r="H69">
-        <v>89171571525</v>
+        <v>88462659039</v>
       </c>
       <c r="J69" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K69" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L69" t="s">
         <v>17</v>
@@ -4339,7 +4429,7 @@
     </row>
     <row r="70" spans="1:13">
       <c r="A70">
-        <v>568</v>
+        <v>123</v>
       </c>
       <c r="B70">
         <v>2</v>
@@ -4348,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="D70" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E70" t="s">
         <v>14</v>
@@ -4360,10 +4450,7 @@
         <v>3</v>
       </c>
       <c r="H70">
-        <v>88462608990</v>
-      </c>
-      <c r="J70" t="s">
-        <v>214</v>
+        <v>88462766105</v>
       </c>
       <c r="K70" t="s">
         <v>215</v>
@@ -4377,7 +4464,7 @@
     </row>
     <row r="71" spans="1:13">
       <c r="A71">
-        <v>444</v>
+        <v>35</v>
       </c>
       <c r="B71">
         <v>2</v>
@@ -4389,22 +4476,22 @@
         <v>216</v>
       </c>
       <c r="E71" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" t="s">
+        <v>15</v>
+      </c>
+      <c r="G71">
+        <v>3</v>
+      </c>
+      <c r="H71">
+        <v>88462290942</v>
+      </c>
+      <c r="J71" t="s">
         <v>217</v>
       </c>
-      <c r="F71" t="s">
+      <c r="K71" t="s">
         <v>218</v>
-      </c>
-      <c r="G71">
-        <v>2</v>
-      </c>
-      <c r="H71">
-        <v>89372341161</v>
-      </c>
-      <c r="J71" t="s">
-        <v>219</v>
-      </c>
-      <c r="K71" t="s">
-        <v>220</v>
       </c>
       <c r="L71" t="s">
         <v>17</v>
@@ -4415,7 +4502,7 @@
     </row>
     <row r="72" spans="1:13">
       <c r="A72">
-        <v>288</v>
+        <v>754</v>
       </c>
       <c r="B72">
         <v>2</v>
@@ -4424,25 +4511,25 @@
         <v>0</v>
       </c>
       <c r="D72" t="s">
+        <v>219</v>
+      </c>
+      <c r="E72" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" t="s">
+        <v>15</v>
+      </c>
+      <c r="G72">
+        <v>3</v>
+      </c>
+      <c r="H72">
+        <v>89171571525</v>
+      </c>
+      <c r="J72" t="s">
+        <v>220</v>
+      </c>
+      <c r="K72" t="s">
         <v>221</v>
-      </c>
-      <c r="E72" t="s">
-        <v>14</v>
-      </c>
-      <c r="F72" t="s">
-        <v>15</v>
-      </c>
-      <c r="G72">
-        <v>3</v>
-      </c>
-      <c r="H72">
-        <v>88462122898</v>
-      </c>
-      <c r="J72" t="s">
-        <v>222</v>
-      </c>
-      <c r="K72" t="s">
-        <v>223</v>
       </c>
       <c r="L72" t="s">
         <v>17</v>
@@ -4453,7 +4540,7 @@
     </row>
     <row r="73" spans="1:13">
       <c r="A73">
-        <v>674</v>
+        <v>568</v>
       </c>
       <c r="B73">
         <v>2</v>
@@ -4462,22 +4549,25 @@
         <v>0</v>
       </c>
       <c r="D73" t="s">
+        <v>222</v>
+      </c>
+      <c r="E73" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" t="s">
+        <v>15</v>
+      </c>
+      <c r="G73">
+        <v>3</v>
+      </c>
+      <c r="H73">
+        <v>88462608990</v>
+      </c>
+      <c r="J73" t="s">
+        <v>223</v>
+      </c>
+      <c r="K73" t="s">
         <v>224</v>
-      </c>
-      <c r="E73" t="s">
-        <v>217</v>
-      </c>
-      <c r="F73" t="s">
-        <v>15</v>
-      </c>
-      <c r="G73">
-        <v>3</v>
-      </c>
-      <c r="H73">
-        <v>89649749060</v>
-      </c>
-      <c r="K73" t="s">
-        <v>225</v>
       </c>
       <c r="L73" t="s">
         <v>17</v>
@@ -4488,7 +4578,7 @@
     </row>
     <row r="74" spans="1:13">
       <c r="A74">
-        <v>127</v>
+        <v>444</v>
       </c>
       <c r="B74">
         <v>2</v>
@@ -4497,28 +4587,25 @@
         <v>0</v>
       </c>
       <c r="D74" t="s">
+        <v>225</v>
+      </c>
+      <c r="E74" t="s">
         <v>226</v>
       </c>
-      <c r="E74" t="s">
-        <v>14</v>
-      </c>
       <c r="F74" t="s">
-        <v>15</v>
+        <v>227</v>
       </c>
       <c r="G74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H74">
-        <v>88462607533</v>
-      </c>
-      <c r="I74" t="s">
-        <v>153</v>
+        <v>89372341161</v>
       </c>
       <c r="J74" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K74" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L74" t="s">
         <v>17</v>
@@ -4529,7 +4616,7 @@
     </row>
     <row r="75" spans="1:13">
       <c r="A75">
-        <v>128</v>
+        <v>288</v>
       </c>
       <c r="B75">
         <v>2</v>
@@ -4538,7 +4625,7 @@
         <v>0</v>
       </c>
       <c r="D75" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E75" t="s">
         <v>14</v>
@@ -4550,13 +4637,13 @@
         <v>3</v>
       </c>
       <c r="H75">
-        <v>89276532277</v>
+        <v>88462122898</v>
       </c>
       <c r="J75" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K75" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L75" t="s">
         <v>17</v>
@@ -4567,7 +4654,7 @@
     </row>
     <row r="76" spans="1:13">
       <c r="A76">
-        <v>74</v>
+        <v>674</v>
       </c>
       <c r="B76">
         <v>2</v>
@@ -4576,10 +4663,10 @@
         <v>0</v>
       </c>
       <c r="D76" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E76" t="s">
-        <v>14</v>
+        <v>226</v>
       </c>
       <c r="F76" t="s">
         <v>15</v>
@@ -4588,10 +4675,7 @@
         <v>3</v>
       </c>
       <c r="H76">
-        <v>88462248431</v>
-      </c>
-      <c r="J76" t="s">
-        <v>233</v>
+        <v>89649749060</v>
       </c>
       <c r="K76" t="s">
         <v>234</v>
@@ -4605,7 +4689,7 @@
     </row>
     <row r="77" spans="1:13">
       <c r="A77">
-        <v>727</v>
+        <v>127</v>
       </c>
       <c r="B77">
         <v>2</v>
@@ -4626,7 +4710,10 @@
         <v>3</v>
       </c>
       <c r="H77">
-        <v>8469985252</v>
+        <v>88462607533</v>
+      </c>
+      <c r="I77" t="s">
+        <v>162</v>
       </c>
       <c r="J77" t="s">
         <v>236</v>
@@ -4643,7 +4730,7 @@
     </row>
     <row r="78" spans="1:13">
       <c r="A78">
-        <v>741</v>
+        <v>128</v>
       </c>
       <c r="B78">
         <v>2</v>
@@ -4664,13 +4751,13 @@
         <v>3</v>
       </c>
       <c r="H78">
-        <v>88462659039</v>
+        <v>89276532277</v>
       </c>
       <c r="J78" t="s">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="K78" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L78" t="s">
         <v>17</v>
@@ -4681,7 +4768,7 @@
     </row>
     <row r="79" spans="1:13">
       <c r="A79">
-        <v>742</v>
+        <v>74</v>
       </c>
       <c r="B79">
         <v>2</v>
@@ -4690,7 +4777,7 @@
         <v>0</v>
       </c>
       <c r="D79" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E79" t="s">
         <v>14</v>
@@ -4702,13 +4789,13 @@
         <v>3</v>
       </c>
       <c r="H79">
-        <v>88462659039</v>
+        <v>88462248431</v>
       </c>
       <c r="J79" t="s">
-        <v>203</v>
+        <v>242</v>
       </c>
       <c r="K79" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L79" t="s">
         <v>17</v>
@@ -4719,7 +4806,7 @@
     </row>
     <row r="80" spans="1:13">
       <c r="A80">
-        <v>743</v>
+        <v>727</v>
       </c>
       <c r="B80">
         <v>2</v>
@@ -4728,7 +4815,7 @@
         <v>0</v>
       </c>
       <c r="D80" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E80" t="s">
         <v>14</v>
@@ -4740,13 +4827,13 @@
         <v>3</v>
       </c>
       <c r="H80">
-        <v>88462659039</v>
+        <v>8469985252</v>
       </c>
       <c r="J80" t="s">
-        <v>203</v>
+        <v>245</v>
       </c>
       <c r="K80" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L80" t="s">
         <v>17</v>
@@ -4757,7 +4844,7 @@
     </row>
     <row r="81" spans="1:13">
       <c r="A81">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="B81">
         <v>2</v>
@@ -4766,7 +4853,7 @@
         <v>0</v>
       </c>
       <c r="D81" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E81" t="s">
         <v>14</v>
@@ -4781,10 +4868,10 @@
         <v>88462659039</v>
       </c>
       <c r="J81" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="K81" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="L81" t="s">
         <v>17</v>
@@ -4795,7 +4882,7 @@
     </row>
     <row r="82" spans="1:13">
       <c r="A82">
-        <v>293</v>
+        <v>742</v>
       </c>
       <c r="B82">
         <v>2</v>
@@ -4804,7 +4891,7 @@
         <v>0</v>
       </c>
       <c r="D82" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E82" t="s">
         <v>14</v>
@@ -4816,13 +4903,13 @@
         <v>3</v>
       </c>
       <c r="H82">
-        <v>89372027060</v>
+        <v>88462659039</v>
       </c>
       <c r="J82" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="K82" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L82" t="s">
         <v>17</v>
@@ -4833,7 +4920,7 @@
     </row>
     <row r="83" spans="1:13">
       <c r="A83">
-        <v>270</v>
+        <v>743</v>
       </c>
       <c r="B83">
         <v>2</v>
@@ -4842,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="D83" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E83" t="s">
         <v>14</v>
@@ -4854,13 +4941,13 @@
         <v>3</v>
       </c>
       <c r="H83">
-        <v>89272648852</v>
+        <v>88462659039</v>
       </c>
       <c r="J83" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="K83" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L83" t="s">
         <v>17</v>
@@ -4871,7 +4958,7 @@
     </row>
     <row r="84" spans="1:13">
       <c r="A84">
-        <v>203</v>
+        <v>738</v>
       </c>
       <c r="B84">
         <v>2</v>
@@ -4880,7 +4967,7 @@
         <v>0</v>
       </c>
       <c r="D84" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E84" t="s">
         <v>14</v>
@@ -4895,10 +4982,10 @@
         <v>88462659039</v>
       </c>
       <c r="J84" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="K84" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L84" t="s">
         <v>17</v>
@@ -4909,7 +4996,7 @@
     </row>
     <row r="85" spans="1:13">
       <c r="A85">
-        <v>756</v>
+        <v>293</v>
       </c>
       <c r="B85">
         <v>2</v>
@@ -4918,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="D85" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E85" t="s">
         <v>14</v>
@@ -4930,13 +5017,13 @@
         <v>3</v>
       </c>
       <c r="H85">
-        <v>88462435277</v>
+        <v>89372027060</v>
       </c>
       <c r="J85" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K85" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L85" t="s">
         <v>17</v>
@@ -4947,7 +5034,7 @@
     </row>
     <row r="86" spans="1:13">
       <c r="A86">
-        <v>698</v>
+        <v>761</v>
       </c>
       <c r="B86">
         <v>2</v>
@@ -4956,7 +5043,7 @@
         <v>0</v>
       </c>
       <c r="D86" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E86" t="s">
         <v>14</v>
@@ -4968,16 +5055,13 @@
         <v>3</v>
       </c>
       <c r="H86">
-        <v>88462788835</v>
-      </c>
-      <c r="I86" t="s">
-        <v>153</v>
+        <v>88462477425</v>
       </c>
       <c r="J86" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K86" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L86" t="s">
         <v>17</v>
@@ -4988,7 +5072,7 @@
     </row>
     <row r="87" spans="1:13">
       <c r="A87">
-        <v>443</v>
+        <v>270</v>
       </c>
       <c r="B87">
         <v>2</v>
@@ -4997,19 +5081,19 @@
         <v>0</v>
       </c>
       <c r="D87" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E87" t="s">
-        <v>261</v>
+        <v>14</v>
       </c>
       <c r="F87" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H87">
-        <v>89179649709</v>
+        <v>89272648852</v>
       </c>
       <c r="J87" t="s">
         <v>262</v>
@@ -5026,7 +5110,7 @@
     </row>
     <row r="88" spans="1:13">
       <c r="A88">
-        <v>745</v>
+        <v>203</v>
       </c>
       <c r="B88">
         <v>2</v>
@@ -5047,13 +5131,13 @@
         <v>3</v>
       </c>
       <c r="H88">
-        <v>88462034799</v>
+        <v>88462659039</v>
       </c>
       <c r="J88" t="s">
+        <v>212</v>
+      </c>
+      <c r="K88" t="s">
         <v>265</v>
-      </c>
-      <c r="K88" t="s">
-        <v>266</v>
       </c>
       <c r="L88" t="s">
         <v>17</v>
@@ -5064,7 +5148,7 @@
     </row>
     <row r="89" spans="1:13">
       <c r="A89">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B89">
         <v>2</v>
@@ -5073,25 +5157,25 @@
         <v>0</v>
       </c>
       <c r="D89" t="s">
+        <v>266</v>
+      </c>
+      <c r="E89" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" t="s">
+        <v>15</v>
+      </c>
+      <c r="G89">
+        <v>3</v>
+      </c>
+      <c r="H89">
+        <v>88462435277</v>
+      </c>
+      <c r="J89" t="s">
         <v>267</v>
       </c>
-      <c r="E89" t="s">
-        <v>14</v>
-      </c>
-      <c r="F89" t="s">
-        <v>15</v>
-      </c>
-      <c r="G89">
-        <v>3</v>
-      </c>
-      <c r="H89">
-        <v>88462759099</v>
-      </c>
-      <c r="J89" t="s">
+      <c r="K89" t="s">
         <v>268</v>
-      </c>
-      <c r="K89" t="s">
-        <v>269</v>
       </c>
       <c r="L89" t="s">
         <v>17</v>
@@ -5102,7 +5186,7 @@
     </row>
     <row r="90" spans="1:13">
       <c r="A90">
-        <v>421</v>
+        <v>698</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -5111,28 +5195,28 @@
         <v>0</v>
       </c>
       <c r="D90" t="s">
+        <v>269</v>
+      </c>
+      <c r="E90" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90" t="s">
+        <v>15</v>
+      </c>
+      <c r="G90">
+        <v>3</v>
+      </c>
+      <c r="H90">
+        <v>88462788835</v>
+      </c>
+      <c r="I90" t="s">
+        <v>162</v>
+      </c>
+      <c r="J90" t="s">
         <v>270</v>
       </c>
-      <c r="E90" t="s">
-        <v>14</v>
-      </c>
-      <c r="F90" t="s">
-        <v>15</v>
-      </c>
-      <c r="G90">
-        <v>3</v>
-      </c>
-      <c r="H90">
-        <v>89372000052</v>
-      </c>
-      <c r="I90" t="s">
+      <c r="K90" t="s">
         <v>271</v>
-      </c>
-      <c r="J90" t="s">
-        <v>272</v>
-      </c>
-      <c r="K90" t="s">
-        <v>273</v>
       </c>
       <c r="L90" t="s">
         <v>17</v>
@@ -5143,7 +5227,7 @@
     </row>
     <row r="91" spans="1:13">
       <c r="A91">
-        <v>736</v>
+        <v>443</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -5152,22 +5236,22 @@
         <v>0</v>
       </c>
       <c r="D91" t="s">
+        <v>272</v>
+      </c>
+      <c r="E91" t="s">
+        <v>273</v>
+      </c>
+      <c r="F91" t="s">
+        <v>95</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>89179649709</v>
+      </c>
+      <c r="J91" t="s">
         <v>274</v>
-      </c>
-      <c r="E91" t="s">
-        <v>14</v>
-      </c>
-      <c r="F91" t="s">
-        <v>15</v>
-      </c>
-      <c r="G91">
-        <v>3</v>
-      </c>
-      <c r="H91">
-        <v>88462659039</v>
-      </c>
-      <c r="J91" t="s">
-        <v>203</v>
       </c>
       <c r="K91" t="s">
         <v>275</v>
@@ -5181,7 +5265,7 @@
     </row>
     <row r="92" spans="1:13">
       <c r="A92">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="B92">
         <v>2</v>
@@ -5202,13 +5286,13 @@
         <v>3</v>
       </c>
       <c r="H92">
-        <v>88462959039</v>
+        <v>88462034799</v>
       </c>
       <c r="J92" t="s">
-        <v>203</v>
+        <v>277</v>
       </c>
       <c r="K92" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L92" t="s">
         <v>17</v>
@@ -5219,7 +5303,7 @@
     </row>
     <row r="93" spans="1:13">
       <c r="A93">
-        <v>75</v>
+        <v>755</v>
       </c>
       <c r="B93">
         <v>2</v>
@@ -5228,7 +5312,7 @@
         <v>0</v>
       </c>
       <c r="D93" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E93" t="s">
         <v>14</v>
@@ -5240,13 +5324,13 @@
         <v>3</v>
       </c>
       <c r="H93">
-        <v>88462659001</v>
+        <v>88462759099</v>
       </c>
       <c r="J93" t="s">
-        <v>203</v>
+        <v>280</v>
       </c>
       <c r="K93" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L93" t="s">
         <v>17</v>
@@ -5257,7 +5341,7 @@
     </row>
     <row r="94" spans="1:13">
       <c r="A94">
-        <v>211</v>
+        <v>421</v>
       </c>
       <c r="B94">
         <v>2</v>
@@ -5266,7 +5350,7 @@
         <v>0</v>
       </c>
       <c r="D94" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E94" t="s">
         <v>14</v>
@@ -5278,13 +5362,16 @@
         <v>3</v>
       </c>
       <c r="H94">
-        <v>88463725993</v>
+        <v>89372000052</v>
+      </c>
+      <c r="I94" t="s">
+        <v>283</v>
       </c>
       <c r="J94" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K94" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="L94" t="s">
         <v>17</v>
@@ -5295,7 +5382,7 @@
     </row>
     <row r="95" spans="1:13">
       <c r="A95">
-        <v>522</v>
+        <v>760</v>
       </c>
       <c r="B95">
         <v>2</v>
@@ -5304,7 +5391,7 @@
         <v>0</v>
       </c>
       <c r="D95" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E95" t="s">
         <v>14</v>
@@ -5316,13 +5403,13 @@
         <v>3</v>
       </c>
       <c r="H95">
-        <v>88469930819</v>
+        <v>88463106829</v>
       </c>
       <c r="J95" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="K95" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="L95" t="s">
         <v>17</v>
@@ -5333,7 +5420,7 @@
     </row>
     <row r="96" spans="1:13">
       <c r="A96">
-        <v>644</v>
+        <v>736</v>
       </c>
       <c r="B96">
         <v>2</v>
@@ -5342,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="D96" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E96" t="s">
         <v>14</v>
@@ -5354,13 +5441,13 @@
         <v>3</v>
       </c>
       <c r="H96">
-        <v>88462777076</v>
+        <v>88462659039</v>
       </c>
       <c r="J96" t="s">
-        <v>287</v>
+        <v>212</v>
       </c>
       <c r="K96" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L96" t="s">
         <v>17</v>
@@ -5371,7 +5458,7 @@
     </row>
     <row r="97" spans="1:13">
       <c r="A97">
-        <v>77</v>
+        <v>602</v>
       </c>
       <c r="B97">
         <v>2</v>
@@ -5380,7 +5467,7 @@
         <v>0</v>
       </c>
       <c r="D97" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E97" t="s">
         <v>14</v>
@@ -5392,13 +5479,13 @@
         <v>3</v>
       </c>
       <c r="H97">
-        <v>88463317526</v>
+        <v>89371864794</v>
       </c>
       <c r="J97" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K97" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L97" t="s">
         <v>17</v>
@@ -5409,7 +5496,7 @@
     </row>
     <row r="98" spans="1:13">
       <c r="A98">
-        <v>70</v>
+        <v>737</v>
       </c>
       <c r="B98">
         <v>2</v>
@@ -5418,7 +5505,7 @@
         <v>0</v>
       </c>
       <c r="D98" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E98" t="s">
         <v>14</v>
@@ -5430,13 +5517,13 @@
         <v>3</v>
       </c>
       <c r="H98">
-        <v>88469275177</v>
+        <v>88462959039</v>
       </c>
       <c r="J98" t="s">
-        <v>293</v>
+        <v>212</v>
       </c>
       <c r="K98" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L98" t="s">
         <v>17</v>
@@ -5447,7 +5534,7 @@
     </row>
     <row r="99" spans="1:13">
       <c r="A99">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="B99">
         <v>2</v>
@@ -5456,7 +5543,7 @@
         <v>0</v>
       </c>
       <c r="D99" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E99" t="s">
         <v>14</v>
@@ -5468,10 +5555,13 @@
         <v>3</v>
       </c>
       <c r="H99">
-        <v>88462670072</v>
+        <v>88462659001</v>
+      </c>
+      <c r="J99" t="s">
+        <v>212</v>
       </c>
       <c r="K99" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L99" t="s">
         <v>17</v>
@@ -5482,7 +5572,7 @@
     </row>
     <row r="100" spans="1:13">
       <c r="A100">
-        <v>395</v>
+        <v>211</v>
       </c>
       <c r="B100">
         <v>2</v>
@@ -5491,7 +5581,7 @@
         <v>0</v>
       </c>
       <c r="D100" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E100" t="s">
         <v>14</v>
@@ -5503,13 +5593,13 @@
         <v>3</v>
       </c>
       <c r="H100">
-        <v>88462212268</v>
+        <v>88463725993</v>
       </c>
       <c r="J100" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K100" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L100" t="s">
         <v>17</v>
@@ -5520,7 +5610,7 @@
     </row>
     <row r="101" spans="1:13">
       <c r="A101">
-        <v>465</v>
+        <v>522</v>
       </c>
       <c r="B101">
         <v>2</v>
@@ -5529,10 +5619,10 @@
         <v>0</v>
       </c>
       <c r="D101" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E101" t="s">
-        <v>217</v>
+        <v>14</v>
       </c>
       <c r="F101" t="s">
         <v>15</v>
@@ -5541,13 +5631,13 @@
         <v>3</v>
       </c>
       <c r="H101">
-        <v>89278908057</v>
+        <v>88469930819</v>
       </c>
       <c r="J101" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K101" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L101" t="s">
         <v>17</v>
@@ -5558,7 +5648,7 @@
     </row>
     <row r="102" spans="1:13">
       <c r="A102">
-        <v>747</v>
+        <v>644</v>
       </c>
       <c r="B102">
         <v>2</v>
@@ -5567,7 +5657,7 @@
         <v>0</v>
       </c>
       <c r="D102" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E102" t="s">
         <v>14</v>
@@ -5579,13 +5669,13 @@
         <v>3</v>
       </c>
       <c r="H102">
-        <v>89171525156</v>
+        <v>88462777076</v>
       </c>
       <c r="J102" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K102" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L102" t="s">
         <v>17</v>
@@ -5596,16 +5686,16 @@
     </row>
     <row r="103" spans="1:13">
       <c r="A103">
-        <v>266</v>
+        <v>77</v>
       </c>
       <c r="B103">
         <v>2</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D103" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E103" t="s">
         <v>14</v>
@@ -5617,13 +5707,13 @@
         <v>3</v>
       </c>
       <c r="H103">
-        <v>88463313364</v>
+        <v>88463317526</v>
       </c>
       <c r="J103" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K103" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L103" t="s">
         <v>17</v>
@@ -5634,7 +5724,7 @@
     </row>
     <row r="104" spans="1:13">
       <c r="A104">
-        <v>630</v>
+        <v>70</v>
       </c>
       <c r="B104">
         <v>2</v>
@@ -5643,7 +5733,7 @@
         <v>0</v>
       </c>
       <c r="D104" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E104" t="s">
         <v>14</v>
@@ -5655,13 +5745,13 @@
         <v>3</v>
       </c>
       <c r="H104">
-        <v>88462659039</v>
+        <v>88469275177</v>
       </c>
       <c r="J104" t="s">
-        <v>203</v>
+        <v>311</v>
       </c>
       <c r="K104" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L104" t="s">
         <v>17</v>
@@ -5672,7 +5762,7 @@
     </row>
     <row r="105" spans="1:13">
       <c r="A105">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="B105">
         <v>2</v>
@@ -5681,7 +5771,7 @@
         <v>0</v>
       </c>
       <c r="D105" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E105" t="s">
         <v>14</v>
@@ -5693,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="H105">
-        <v>88469934277</v>
+        <v>88462670072</v>
       </c>
       <c r="K105" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L105" t="s">
         <v>17</v>
@@ -5707,7 +5797,7 @@
     </row>
     <row r="106" spans="1:13">
       <c r="A106">
-        <v>49</v>
+        <v>395</v>
       </c>
       <c r="B106">
         <v>2</v>
@@ -5716,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="D106" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E106" t="s">
         <v>14</v>
@@ -5728,16 +5818,13 @@
         <v>3</v>
       </c>
       <c r="H106">
-        <v>88462416931</v>
-      </c>
-      <c r="I106" t="s">
-        <v>153</v>
+        <v>88462212268</v>
       </c>
       <c r="J106" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K106" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L106" t="s">
         <v>17</v>
@@ -5748,7 +5835,7 @@
     </row>
     <row r="107" spans="1:13">
       <c r="A107">
-        <v>388</v>
+        <v>465</v>
       </c>
       <c r="B107">
         <v>2</v>
@@ -5757,10 +5844,10 @@
         <v>0</v>
       </c>
       <c r="D107" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E107" t="s">
-        <v>14</v>
+        <v>226</v>
       </c>
       <c r="F107" t="s">
         <v>15</v>
@@ -5769,10 +5856,13 @@
         <v>3</v>
       </c>
       <c r="H107">
-        <v>88469798703</v>
+        <v>89278908057</v>
+      </c>
+      <c r="J107" t="s">
+        <v>319</v>
       </c>
       <c r="K107" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="L107" t="s">
         <v>17</v>
@@ -5783,7 +5873,7 @@
     </row>
     <row r="108" spans="1:13">
       <c r="A108">
-        <v>333</v>
+        <v>747</v>
       </c>
       <c r="B108">
         <v>2</v>
@@ -5792,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="D108" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E108" t="s">
         <v>14</v>
@@ -5804,13 +5894,13 @@
         <v>3</v>
       </c>
       <c r="H108">
-        <v>88469270060</v>
+        <v>89171525156</v>
       </c>
       <c r="J108" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="K108" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="L108" t="s">
         <v>17</v>
@@ -5821,16 +5911,16 @@
     </row>
     <row r="109" spans="1:13">
       <c r="A109">
-        <v>84</v>
+        <v>266</v>
       </c>
       <c r="B109">
         <v>2</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D109" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E109" t="s">
         <v>14</v>
@@ -5842,13 +5932,13 @@
         <v>3</v>
       </c>
       <c r="H109">
-        <v>88462030220</v>
+        <v>88463313364</v>
       </c>
       <c r="J109" t="s">
-        <v>247</v>
+        <v>325</v>
       </c>
       <c r="K109" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="L109" t="s">
         <v>17</v>
@@ -5859,7 +5949,7 @@
     </row>
     <row r="110" spans="1:13">
       <c r="A110">
-        <v>749</v>
+        <v>630</v>
       </c>
       <c r="B110">
         <v>2</v>
@@ -5868,7 +5958,7 @@
         <v>0</v>
       </c>
       <c r="D110" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="E110" t="s">
         <v>14</v>
@@ -5880,13 +5970,13 @@
         <v>3</v>
       </c>
       <c r="H110">
-        <v>89178152200</v>
+        <v>88462659039</v>
       </c>
       <c r="J110" t="s">
-        <v>324</v>
+        <v>212</v>
       </c>
       <c r="K110" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="L110" t="s">
         <v>17</v>
@@ -5897,7 +5987,7 @@
     </row>
     <row r="111" spans="1:13">
       <c r="A111">
-        <v>208</v>
+        <v>82</v>
       </c>
       <c r="B111">
         <v>2</v>
@@ -5906,7 +5996,7 @@
         <v>0</v>
       </c>
       <c r="D111" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E111" t="s">
         <v>14</v>
@@ -5918,13 +6008,10 @@
         <v>3</v>
       </c>
       <c r="H111">
-        <v>88462638848</v>
-      </c>
-      <c r="J111" t="s">
-        <v>327</v>
+        <v>88469934277</v>
       </c>
       <c r="K111" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L111" t="s">
         <v>17</v>
@@ -5935,7 +6022,7 @@
     </row>
     <row r="112" spans="1:13">
       <c r="A112">
-        <v>326</v>
+        <v>49</v>
       </c>
       <c r="B112">
         <v>2</v>
@@ -5944,7 +6031,7 @@
         <v>0</v>
       </c>
       <c r="D112" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E112" t="s">
         <v>14</v>
@@ -5956,13 +6043,16 @@
         <v>3</v>
       </c>
       <c r="H112">
-        <v>88462659039</v>
+        <v>88462416931</v>
+      </c>
+      <c r="I112" t="s">
+        <v>162</v>
       </c>
       <c r="J112" t="s">
-        <v>203</v>
+        <v>332</v>
       </c>
       <c r="K112" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L112" t="s">
         <v>17</v>
@@ -5973,7 +6063,7 @@
     </row>
     <row r="113" spans="1:13">
       <c r="A113">
-        <v>744</v>
+        <v>388</v>
       </c>
       <c r="B113">
         <v>2</v>
@@ -5982,7 +6072,7 @@
         <v>0</v>
       </c>
       <c r="D113" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E113" t="s">
         <v>14</v>
@@ -5994,13 +6084,10 @@
         <v>3</v>
       </c>
       <c r="H113">
-        <v>88462659039</v>
-      </c>
-      <c r="J113" t="s">
-        <v>203</v>
+        <v>88469798703</v>
       </c>
       <c r="K113" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="L113" t="s">
         <v>17</v>
@@ -6011,7 +6098,7 @@
     </row>
     <row r="114" spans="1:13">
       <c r="A114">
-        <v>431</v>
+        <v>759</v>
       </c>
       <c r="B114">
         <v>2</v>
@@ -6020,7 +6107,7 @@
         <v>0</v>
       </c>
       <c r="D114" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="E114" t="s">
         <v>14</v>
@@ -6032,16 +6119,13 @@
         <v>3</v>
       </c>
       <c r="H114">
-        <v>88462401495</v>
-      </c>
-      <c r="I114" t="s">
-        <v>153</v>
+        <v>88463312220</v>
       </c>
       <c r="J114" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K114" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="L114" t="s">
         <v>17</v>
@@ -6052,7 +6136,7 @@
     </row>
     <row r="115" spans="1:13">
       <c r="A115">
-        <v>689</v>
+        <v>333</v>
       </c>
       <c r="B115">
         <v>2</v>
@@ -6061,7 +6145,7 @@
         <v>0</v>
       </c>
       <c r="D115" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E115" t="s">
         <v>14</v>
@@ -6073,16 +6157,13 @@
         <v>3</v>
       </c>
       <c r="H115">
-        <v>89272960024</v>
-      </c>
-      <c r="I115" t="s">
-        <v>153</v>
+        <v>88469270060</v>
       </c>
       <c r="J115" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="K115" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="L115" t="s">
         <v>17</v>
@@ -6093,7 +6174,7 @@
     </row>
     <row r="116" spans="1:13">
       <c r="A116">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B116">
         <v>2</v>
@@ -6102,7 +6183,7 @@
         <v>0</v>
       </c>
       <c r="D116" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="E116" t="s">
         <v>14</v>
@@ -6114,13 +6195,13 @@
         <v>3</v>
       </c>
       <c r="H116">
-        <v>88462248431</v>
+        <v>88462030220</v>
       </c>
       <c r="J116" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="K116" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="L116" t="s">
         <v>17</v>
@@ -6131,7 +6212,7 @@
     </row>
     <row r="117" spans="1:13">
       <c r="A117">
-        <v>409</v>
+        <v>749</v>
       </c>
       <c r="B117">
         <v>2</v>
@@ -6140,7 +6221,7 @@
         <v>0</v>
       </c>
       <c r="D117" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="E117" t="s">
         <v>14</v>
@@ -6152,13 +6233,13 @@
         <v>3</v>
       </c>
       <c r="H117">
-        <v>89276056495</v>
+        <v>89178152200</v>
       </c>
       <c r="J117" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="K117" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="L117" t="s">
         <v>17</v>
@@ -6169,7 +6250,7 @@
     </row>
     <row r="118" spans="1:13">
       <c r="A118">
-        <v>89</v>
+        <v>208</v>
       </c>
       <c r="B118">
         <v>2</v>
@@ -6178,7 +6259,7 @@
         <v>0</v>
       </c>
       <c r="D118" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="E118" t="s">
         <v>14</v>
@@ -6190,13 +6271,13 @@
         <v>3</v>
       </c>
       <c r="H118">
-        <v>88462038217</v>
+        <v>88462638848</v>
       </c>
       <c r="J118" t="s">
-        <v>233</v>
+        <v>348</v>
       </c>
       <c r="K118" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="L118" t="s">
         <v>17</v>
@@ -6207,7 +6288,7 @@
     </row>
     <row r="119" spans="1:13">
       <c r="A119">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="B119">
         <v>2</v>
@@ -6216,7 +6297,7 @@
         <v>0</v>
       </c>
       <c r="D119" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="E119" t="s">
         <v>14</v>
@@ -6228,13 +6309,13 @@
         <v>3</v>
       </c>
       <c r="H119">
-        <v>88462248431</v>
+        <v>88462659039</v>
       </c>
       <c r="J119" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="K119" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="L119" t="s">
         <v>17</v>
@@ -6245,7 +6326,7 @@
     </row>
     <row r="120" spans="1:13">
       <c r="A120">
-        <v>464</v>
+        <v>744</v>
       </c>
       <c r="B120">
         <v>2</v>
@@ -6254,7 +6335,7 @@
         <v>0</v>
       </c>
       <c r="D120" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="E120" t="s">
         <v>14</v>
@@ -6266,13 +6347,13 @@
         <v>3</v>
       </c>
       <c r="H120">
-        <v>89277206970</v>
+        <v>88462659039</v>
       </c>
       <c r="J120" t="s">
-        <v>348</v>
+        <v>212</v>
       </c>
       <c r="K120" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="L120" t="s">
         <v>17</v>
@@ -6283,16 +6364,16 @@
     </row>
     <row r="121" spans="1:13">
       <c r="A121">
-        <v>69</v>
+        <v>431</v>
       </c>
       <c r="B121">
         <v>2</v>
       </c>
       <c r="C121">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D121" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="E121" t="s">
         <v>14</v>
@@ -6304,13 +6385,16 @@
         <v>3</v>
       </c>
       <c r="H121">
-        <v>88469307261</v>
+        <v>88462401495</v>
+      </c>
+      <c r="I121" t="s">
+        <v>162</v>
       </c>
       <c r="J121" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="K121" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="L121" t="s">
         <v>17</v>
@@ -6321,7 +6405,7 @@
     </row>
     <row r="122" spans="1:13">
       <c r="A122">
-        <v>269</v>
+        <v>689</v>
       </c>
       <c r="B122">
         <v>2</v>
@@ -6330,7 +6414,7 @@
         <v>0</v>
       </c>
       <c r="D122" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="E122" t="s">
         <v>14</v>
@@ -6342,13 +6426,16 @@
         <v>3</v>
       </c>
       <c r="H122">
-        <v>89272026452</v>
+        <v>89272960024</v>
+      </c>
+      <c r="I122" t="s">
+        <v>162</v>
       </c>
       <c r="J122" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="K122" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="L122" t="s">
         <v>17</v>
@@ -6359,7 +6446,7 @@
     </row>
     <row r="123" spans="1:13">
       <c r="A123">
-        <v>544</v>
+        <v>88</v>
       </c>
       <c r="B123">
         <v>2</v>
@@ -6368,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="D123" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="E123" t="s">
         <v>14</v>
@@ -6380,13 +6467,13 @@
         <v>3</v>
       </c>
       <c r="H123">
-        <v>88463739653</v>
+        <v>88462248431</v>
       </c>
       <c r="J123" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="K123" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="L123" t="s">
         <v>17</v>
@@ -6397,7 +6484,7 @@
     </row>
     <row r="124" spans="1:13">
       <c r="A124">
-        <v>728</v>
+        <v>409</v>
       </c>
       <c r="B124">
         <v>2</v>
@@ -6406,22 +6493,25 @@
         <v>0</v>
       </c>
       <c r="D124" t="s">
+        <v>362</v>
+      </c>
+      <c r="E124" t="s">
+        <v>14</v>
+      </c>
+      <c r="F124" t="s">
+        <v>15</v>
+      </c>
+      <c r="G124">
+        <v>3</v>
+      </c>
+      <c r="H124">
+        <v>89276056495</v>
+      </c>
+      <c r="J124" t="s">
         <v>358</v>
       </c>
-      <c r="E124" t="s">
-        <v>14</v>
-      </c>
-      <c r="F124" t="s">
-        <v>15</v>
-      </c>
-      <c r="G124">
-        <v>3</v>
-      </c>
-      <c r="H124">
-        <v>88462626441</v>
-      </c>
       <c r="K124" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="L124" t="s">
         <v>17</v>
@@ -6432,7 +6522,7 @@
     </row>
     <row r="125" spans="1:13">
       <c r="A125">
-        <v>681</v>
+        <v>89</v>
       </c>
       <c r="B125">
         <v>2</v>
@@ -6441,7 +6531,7 @@
         <v>0</v>
       </c>
       <c r="D125" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="E125" t="s">
         <v>14</v>
@@ -6453,16 +6543,13 @@
         <v>3</v>
       </c>
       <c r="H125">
-        <v>88462628886</v>
-      </c>
-      <c r="I125" t="s">
-        <v>93</v>
+        <v>88462038217</v>
       </c>
       <c r="J125" t="s">
-        <v>27</v>
+        <v>242</v>
       </c>
       <c r="K125" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="L125" t="s">
         <v>17</v>
@@ -6473,7 +6560,7 @@
     </row>
     <row r="126" spans="1:13">
       <c r="A126">
-        <v>682</v>
+        <v>310</v>
       </c>
       <c r="B126">
         <v>2</v>
@@ -6482,7 +6569,7 @@
         <v>0</v>
       </c>
       <c r="D126" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E126" t="s">
         <v>14</v>
@@ -6494,16 +6581,13 @@
         <v>3</v>
       </c>
       <c r="H126">
-        <v>88462628831</v>
-      </c>
-      <c r="I126" t="s">
-        <v>93</v>
+        <v>88462248431</v>
       </c>
       <c r="J126" t="s">
-        <v>27</v>
+        <v>242</v>
       </c>
       <c r="K126" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="L126" t="s">
         <v>17</v>
@@ -6514,7 +6598,7 @@
     </row>
     <row r="127" spans="1:13">
       <c r="A127">
-        <v>595</v>
+        <v>464</v>
       </c>
       <c r="B127">
         <v>2</v>
@@ -6523,7 +6607,7 @@
         <v>0</v>
       </c>
       <c r="D127" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="E127" t="s">
         <v>14</v>
@@ -6535,16 +6619,13 @@
         <v>3</v>
       </c>
       <c r="H127">
-        <v>88462035606</v>
-      </c>
-      <c r="I127" t="s">
-        <v>93</v>
+        <v>89277206970</v>
       </c>
       <c r="J127" t="s">
-        <v>27</v>
+        <v>369</v>
       </c>
       <c r="K127" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="L127" t="s">
         <v>17</v>
@@ -6555,16 +6636,16 @@
     </row>
     <row r="128" spans="1:13">
       <c r="A128">
-        <v>678</v>
+        <v>69</v>
       </c>
       <c r="B128">
         <v>2</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D128" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="E128" t="s">
         <v>14</v>
@@ -6576,16 +6657,13 @@
         <v>3</v>
       </c>
       <c r="H128">
-        <v>88462628062</v>
-      </c>
-      <c r="I128" t="s">
-        <v>93</v>
+        <v>88469307261</v>
       </c>
       <c r="J128" t="s">
-        <v>27</v>
+        <v>372</v>
       </c>
       <c r="K128" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="L128" t="s">
         <v>17</v>
@@ -6596,7 +6674,7 @@
     </row>
     <row r="129" spans="1:13">
       <c r="A129">
-        <v>679</v>
+        <v>735</v>
       </c>
       <c r="B129">
         <v>2</v>
@@ -6605,28 +6683,25 @@
         <v>0</v>
       </c>
       <c r="D129" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="E129" t="s">
         <v>14</v>
       </c>
       <c r="F129" t="s">
-        <v>15</v>
+        <v>375</v>
       </c>
       <c r="G129">
         <v>3</v>
       </c>
       <c r="H129">
-        <v>88462628886</v>
-      </c>
-      <c r="I129" t="s">
-        <v>93</v>
+        <v>88462409294</v>
       </c>
       <c r="J129" t="s">
-        <v>27</v>
+        <v>376</v>
       </c>
       <c r="K129" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="L129" t="s">
         <v>17</v>
@@ -6637,7 +6712,7 @@
     </row>
     <row r="130" spans="1:13">
       <c r="A130">
-        <v>680</v>
+        <v>269</v>
       </c>
       <c r="B130">
         <v>2</v>
@@ -6646,7 +6721,7 @@
         <v>0</v>
       </c>
       <c r="D130" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="E130" t="s">
         <v>14</v>
@@ -6658,16 +6733,13 @@
         <v>3</v>
       </c>
       <c r="H130">
-        <v>88462628062</v>
-      </c>
-      <c r="I130" t="s">
-        <v>93</v>
+        <v>89272026452</v>
       </c>
       <c r="J130" t="s">
-        <v>27</v>
+        <v>379</v>
       </c>
       <c r="K130" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="L130" t="s">
         <v>17</v>
@@ -6678,7 +6750,7 @@
     </row>
     <row r="131" spans="1:13">
       <c r="A131">
-        <v>729</v>
+        <v>544</v>
       </c>
       <c r="B131">
         <v>2</v>
@@ -6687,7 +6759,7 @@
         <v>0</v>
       </c>
       <c r="D131" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="E131" t="s">
         <v>14</v>
@@ -6699,13 +6771,13 @@
         <v>3</v>
       </c>
       <c r="H131">
-        <v>89171064637</v>
+        <v>88463739653</v>
       </c>
       <c r="J131" t="s">
-        <v>373</v>
+        <v>284</v>
       </c>
       <c r="K131" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="L131" t="s">
         <v>17</v>
@@ -6716,7 +6788,7 @@
     </row>
     <row r="132" spans="1:13">
       <c r="A132">
-        <v>458</v>
+        <v>728</v>
       </c>
       <c r="B132">
         <v>2</v>
@@ -6725,10 +6797,10 @@
         <v>0</v>
       </c>
       <c r="D132" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="E132" t="s">
-        <v>217</v>
+        <v>14</v>
       </c>
       <c r="F132" t="s">
         <v>15</v>
@@ -6737,13 +6809,10 @@
         <v>3</v>
       </c>
       <c r="H132">
-        <v>89272102590</v>
-      </c>
-      <c r="J132" t="s">
-        <v>376</v>
+        <v>88462626441</v>
       </c>
       <c r="K132" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="L132" t="s">
         <v>17</v>
@@ -6754,7 +6823,7 @@
     </row>
     <row r="133" spans="1:13">
       <c r="A133">
-        <v>711</v>
+        <v>681</v>
       </c>
       <c r="B133">
         <v>2</v>
@@ -6763,7 +6832,7 @@
         <v>0</v>
       </c>
       <c r="D133" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="E133" t="s">
         <v>14</v>
@@ -6775,13 +6844,16 @@
         <v>3</v>
       </c>
       <c r="H133">
-        <v>88462408841</v>
+        <v>88462628886</v>
+      </c>
+      <c r="I133" t="s">
+        <v>102</v>
       </c>
       <c r="J133" t="s">
-        <v>379</v>
+        <v>27</v>
       </c>
       <c r="K133" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="L133" t="s">
         <v>17</v>
@@ -6792,7 +6864,7 @@
     </row>
     <row r="134" spans="1:13">
       <c r="A134">
-        <v>569</v>
+        <v>682</v>
       </c>
       <c r="B134">
         <v>2</v>
@@ -6801,7 +6873,7 @@
         <v>0</v>
       </c>
       <c r="D134" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="E134" t="s">
         <v>14</v>
@@ -6813,13 +6885,16 @@
         <v>3</v>
       </c>
       <c r="H134">
-        <v>88462636395</v>
+        <v>88462628831</v>
+      </c>
+      <c r="I134" t="s">
+        <v>102</v>
       </c>
       <c r="J134" t="s">
-        <v>382</v>
+        <v>27</v>
       </c>
       <c r="K134" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="L134" t="s">
         <v>17</v>
@@ -6830,7 +6905,7 @@
     </row>
     <row r="135" spans="1:13">
       <c r="A135">
-        <v>487</v>
+        <v>595</v>
       </c>
       <c r="B135">
         <v>2</v>
@@ -6839,7 +6914,7 @@
         <v>0</v>
       </c>
       <c r="D135" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="E135" t="s">
         <v>14</v>
@@ -6851,13 +6926,16 @@
         <v>3</v>
       </c>
       <c r="H135">
-        <v>89277410538</v>
+        <v>88462035606</v>
+      </c>
+      <c r="I135" t="s">
+        <v>102</v>
       </c>
       <c r="J135" t="s">
-        <v>385</v>
+        <v>27</v>
       </c>
       <c r="K135" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="L135" t="s">
         <v>17</v>
@@ -6868,16 +6946,16 @@
     </row>
     <row r="136" spans="1:13">
       <c r="A136">
-        <v>488</v>
+        <v>678</v>
       </c>
       <c r="B136">
         <v>2</v>
       </c>
       <c r="C136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D136" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="E136" t="s">
         <v>14</v>
@@ -6889,13 +6967,16 @@
         <v>3</v>
       </c>
       <c r="H136">
-        <v>89370679268</v>
+        <v>88462628062</v>
+      </c>
+      <c r="I136" t="s">
+        <v>102</v>
       </c>
       <c r="J136" t="s">
-        <v>388</v>
+        <v>27</v>
       </c>
       <c r="K136" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="L136" t="s">
         <v>17</v>
@@ -6906,7 +6987,7 @@
     </row>
     <row r="137" spans="1:13">
       <c r="A137">
-        <v>504</v>
+        <v>679</v>
       </c>
       <c r="B137">
         <v>2</v>
@@ -6915,7 +6996,7 @@
         <v>0</v>
       </c>
       <c r="D137" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="E137" t="s">
         <v>14</v>
@@ -6927,13 +7008,16 @@
         <v>3</v>
       </c>
       <c r="H137">
-        <v>88469798752</v>
+        <v>88462628886</v>
+      </c>
+      <c r="I137" t="s">
+        <v>102</v>
       </c>
       <c r="J137" t="s">
-        <v>391</v>
+        <v>27</v>
       </c>
       <c r="K137" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="L137" t="s">
         <v>17</v>
@@ -6944,7 +7028,7 @@
     </row>
     <row r="138" spans="1:13">
       <c r="A138">
-        <v>104</v>
+        <v>680</v>
       </c>
       <c r="B138">
         <v>2</v>
@@ -6953,7 +7037,7 @@
         <v>0</v>
       </c>
       <c r="D138" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E138" t="s">
         <v>14</v>
@@ -6965,13 +7049,16 @@
         <v>3</v>
       </c>
       <c r="H138">
-        <v>88469322416</v>
+        <v>88462628062</v>
+      </c>
+      <c r="I138" t="s">
+        <v>102</v>
       </c>
       <c r="J138" t="s">
-        <v>394</v>
+        <v>27</v>
       </c>
       <c r="K138" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L138" t="s">
         <v>17</v>
@@ -6982,7 +7069,7 @@
     </row>
     <row r="139" spans="1:13">
       <c r="A139">
-        <v>57</v>
+        <v>729</v>
       </c>
       <c r="B139">
         <v>2</v>
@@ -6991,7 +7078,7 @@
         <v>0</v>
       </c>
       <c r="D139" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E139" t="s">
         <v>14</v>
@@ -7003,10 +7090,13 @@
         <v>3</v>
       </c>
       <c r="H139">
-        <v>88462410001</v>
+        <v>89171064637</v>
+      </c>
+      <c r="J139" t="s">
+        <v>398</v>
       </c>
       <c r="K139" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L139" t="s">
         <v>17</v>
@@ -7017,7 +7107,7 @@
     </row>
     <row r="140" spans="1:13">
       <c r="A140">
-        <v>748</v>
+        <v>458</v>
       </c>
       <c r="B140">
         <v>2</v>
@@ -7026,10 +7116,10 @@
         <v>0</v>
       </c>
       <c r="D140" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E140" t="s">
-        <v>14</v>
+        <v>226</v>
       </c>
       <c r="F140" t="s">
         <v>15</v>
@@ -7038,13 +7128,13 @@
         <v>3</v>
       </c>
       <c r="H140">
-        <v>89179405419</v>
+        <v>89272102590</v>
       </c>
       <c r="J140" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K140" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="L140" t="s">
         <v>17</v>
@@ -7055,7 +7145,7 @@
     </row>
     <row r="141" spans="1:13">
       <c r="A141">
-        <v>68</v>
+        <v>711</v>
       </c>
       <c r="B141">
         <v>2</v>
@@ -7064,7 +7154,7 @@
         <v>0</v>
       </c>
       <c r="D141" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E141" t="s">
         <v>14</v>
@@ -7076,10 +7166,13 @@
         <v>3</v>
       </c>
       <c r="H141">
-        <v>88469934291</v>
+        <v>88462408841</v>
+      </c>
+      <c r="J141" t="s">
+        <v>404</v>
       </c>
       <c r="K141" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="L141" t="s">
         <v>17</v>
@@ -7090,7 +7183,7 @@
     </row>
     <row r="142" spans="1:13">
       <c r="A142">
-        <v>658</v>
+        <v>569</v>
       </c>
       <c r="B142">
         <v>2</v>
@@ -7099,7 +7192,7 @@
         <v>0</v>
       </c>
       <c r="D142" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E142" t="s">
         <v>14</v>
@@ -7111,13 +7204,13 @@
         <v>3</v>
       </c>
       <c r="H142">
-        <v>88462216645</v>
+        <v>88462636395</v>
       </c>
       <c r="J142" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="K142" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="L142" t="s">
         <v>17</v>
@@ -7128,7 +7221,7 @@
     </row>
     <row r="143" spans="1:13">
       <c r="A143">
-        <v>379</v>
+        <v>487</v>
       </c>
       <c r="B143">
         <v>2</v>
@@ -7137,7 +7230,7 @@
         <v>0</v>
       </c>
       <c r="D143" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E143" t="s">
         <v>14</v>
@@ -7149,10 +7242,13 @@
         <v>3</v>
       </c>
       <c r="H143">
-        <v>88462659039</v>
+        <v>89277410538</v>
+      </c>
+      <c r="J143" t="s">
+        <v>410</v>
       </c>
       <c r="K143" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="L143" t="s">
         <v>17</v>
@@ -7163,16 +7259,16 @@
     </row>
     <row r="144" spans="1:13">
       <c r="A144">
-        <v>452</v>
+        <v>488</v>
       </c>
       <c r="B144">
         <v>2</v>
       </c>
       <c r="C144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D144" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="E144" t="s">
         <v>14</v>
@@ -7184,13 +7280,13 @@
         <v>3</v>
       </c>
       <c r="H144">
-        <v>88462659039</v>
+        <v>89370679268</v>
       </c>
       <c r="J144" t="s">
-        <v>203</v>
+        <v>413</v>
       </c>
       <c r="K144" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="L144" t="s">
         <v>17</v>
@@ -7201,7 +7297,7 @@
     </row>
     <row r="145" spans="1:13">
       <c r="A145">
-        <v>341</v>
+        <v>504</v>
       </c>
       <c r="B145">
         <v>2</v>
@@ -7210,7 +7306,7 @@
         <v>0</v>
       </c>
       <c r="D145" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="E145" t="s">
         <v>14</v>
@@ -7222,13 +7318,13 @@
         <v>3</v>
       </c>
       <c r="H145">
-        <v>88462659039</v>
+        <v>88469798752</v>
       </c>
       <c r="J145" t="s">
-        <v>203</v>
+        <v>416</v>
       </c>
       <c r="K145" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="L145" t="s">
         <v>17</v>
@@ -7239,7 +7335,7 @@
     </row>
     <row r="146" spans="1:13">
       <c r="A146">
-        <v>746</v>
+        <v>104</v>
       </c>
       <c r="B146">
         <v>2</v>
@@ -7248,7 +7344,7 @@
         <v>0</v>
       </c>
       <c r="D146" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="E146" t="s">
         <v>14</v>
@@ -7260,13 +7356,13 @@
         <v>3</v>
       </c>
       <c r="H146">
-        <v>89171405020</v>
+        <v>88469322416</v>
       </c>
       <c r="J146" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="K146" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="L146" t="s">
         <v>17</v>
@@ -7277,7 +7373,7 @@
     </row>
     <row r="147" spans="1:13">
       <c r="A147">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="B147">
         <v>2</v>
@@ -7286,7 +7382,7 @@
         <v>0</v>
       </c>
       <c r="D147" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="E147" t="s">
         <v>14</v>
@@ -7298,10 +7394,10 @@
         <v>3</v>
       </c>
       <c r="H147">
-        <v>88462698143</v>
+        <v>88462410001</v>
       </c>
       <c r="K147" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="L147" t="s">
         <v>17</v>
@@ -7312,7 +7408,7 @@
     </row>
     <row r="148" spans="1:13">
       <c r="A148">
-        <v>92</v>
+        <v>748</v>
       </c>
       <c r="B148">
         <v>2</v>
@@ -7321,7 +7417,7 @@
         <v>0</v>
       </c>
       <c r="D148" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="E148" t="s">
         <v>14</v>
@@ -7333,13 +7429,13 @@
         <v>3</v>
       </c>
       <c r="H148">
-        <v>88462233113</v>
+        <v>89179405419</v>
       </c>
       <c r="J148" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="K148" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="L148" t="s">
         <v>17</v>
@@ -7350,7 +7446,7 @@
     </row>
     <row r="149" spans="1:13">
       <c r="A149">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="B149">
         <v>2</v>
@@ -7359,7 +7455,7 @@
         <v>0</v>
       </c>
       <c r="D149" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="E149" t="s">
         <v>14</v>
@@ -7371,13 +7467,10 @@
         <v>3</v>
       </c>
       <c r="H149">
-        <v>88462248431</v>
-      </c>
-      <c r="J149" t="s">
-        <v>233</v>
+        <v>88469934291</v>
       </c>
       <c r="K149" t="s">
-        <v>234</v>
+        <v>427</v>
       </c>
       <c r="L149" t="s">
         <v>17</v>
@@ -7388,7 +7481,7 @@
     </row>
     <row r="150" spans="1:13">
       <c r="A150">
-        <v>534</v>
+        <v>658</v>
       </c>
       <c r="B150">
         <v>2</v>
@@ -7397,7 +7490,7 @@
         <v>0</v>
       </c>
       <c r="D150" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="E150" t="s">
         <v>14</v>
@@ -7409,16 +7502,13 @@
         <v>3</v>
       </c>
       <c r="H150">
-        <v>88463315203</v>
-      </c>
-      <c r="I150" t="s">
-        <v>93</v>
+        <v>88462216645</v>
       </c>
       <c r="J150" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="K150" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="L150" t="s">
         <v>17</v>
@@ -7429,7 +7519,7 @@
     </row>
     <row r="151" spans="1:13">
       <c r="A151">
-        <v>692</v>
+        <v>379</v>
       </c>
       <c r="B151">
         <v>2</v>
@@ -7438,7 +7528,7 @@
         <v>0</v>
       </c>
       <c r="D151" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E151" t="s">
         <v>14</v>
@@ -7450,13 +7540,10 @@
         <v>3</v>
       </c>
       <c r="H151">
-        <v>88463315008</v>
-      </c>
-      <c r="J151" t="s">
-        <v>425</v>
+        <v>88462659039</v>
       </c>
       <c r="K151" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="L151" t="s">
         <v>17</v>
@@ -7467,7 +7554,7 @@
     </row>
     <row r="152" spans="1:13">
       <c r="A152">
-        <v>740</v>
+        <v>452</v>
       </c>
       <c r="B152">
         <v>2</v>
@@ -7476,7 +7563,7 @@
         <v>0</v>
       </c>
       <c r="D152" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="E152" t="s">
         <v>14</v>
@@ -7491,10 +7578,10 @@
         <v>88462659039</v>
       </c>
       <c r="J152" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="K152" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="L152" t="s">
         <v>17</v>
@@ -7505,7 +7592,7 @@
     </row>
     <row r="153" spans="1:13">
       <c r="A153">
-        <v>750</v>
+        <v>341</v>
       </c>
       <c r="B153">
         <v>2</v>
@@ -7514,7 +7601,7 @@
         <v>0</v>
       </c>
       <c r="D153" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="E153" t="s">
         <v>14</v>
@@ -7526,13 +7613,13 @@
         <v>3</v>
       </c>
       <c r="H153">
-        <v>89277105950</v>
+        <v>88462659039</v>
       </c>
       <c r="J153" t="s">
-        <v>430</v>
+        <v>212</v>
       </c>
       <c r="K153" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L153" t="s">
         <v>17</v>
@@ -7543,7 +7630,7 @@
     </row>
     <row r="154" spans="1:13">
       <c r="A154">
-        <v>336</v>
+        <v>746</v>
       </c>
       <c r="B154">
         <v>2</v>
@@ -7552,7 +7639,7 @@
         <v>0</v>
       </c>
       <c r="D154" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="E154" t="s">
         <v>14</v>
@@ -7564,13 +7651,13 @@
         <v>3</v>
       </c>
       <c r="H154">
-        <v>88469560515</v>
+        <v>89171405020</v>
       </c>
       <c r="J154" t="s">
-        <v>65</v>
+        <v>438</v>
       </c>
       <c r="K154" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="L154" t="s">
         <v>17</v>
@@ -7581,7 +7668,7 @@
     </row>
     <row r="155" spans="1:13">
       <c r="A155">
-        <v>434</v>
+        <v>91</v>
       </c>
       <c r="B155">
         <v>2</v>
@@ -7590,7 +7677,7 @@
         <v>0</v>
       </c>
       <c r="D155" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="E155" t="s">
         <v>14</v>
@@ -7602,13 +7689,10 @@
         <v>3</v>
       </c>
       <c r="H155">
-        <v>89023382040</v>
-      </c>
-      <c r="J155" t="s">
-        <v>435</v>
+        <v>88462698143</v>
       </c>
       <c r="K155" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="L155" t="s">
         <v>17</v>
@@ -7619,7 +7703,7 @@
     </row>
     <row r="156" spans="1:13">
       <c r="A156">
-        <v>726</v>
+        <v>92</v>
       </c>
       <c r="B156">
         <v>2</v>
@@ -7628,7 +7712,7 @@
         <v>0</v>
       </c>
       <c r="D156" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="E156" t="s">
         <v>14</v>
@@ -7640,16 +7724,13 @@
         <v>3</v>
       </c>
       <c r="H156">
-        <v>88462629835</v>
-      </c>
-      <c r="I156" t="s">
-        <v>438</v>
+        <v>88462233113</v>
       </c>
       <c r="J156" t="s">
-        <v>27</v>
+        <v>443</v>
       </c>
       <c r="K156" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="L156" t="s">
         <v>17</v>
@@ -7660,16 +7741,16 @@
     </row>
     <row r="157" spans="1:13">
       <c r="A157">
-        <v>539</v>
+        <v>758</v>
       </c>
       <c r="B157">
         <v>2</v>
       </c>
       <c r="C157">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D157" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="E157" t="s">
         <v>14</v>
@@ -7681,13 +7762,13 @@
         <v>3</v>
       </c>
       <c r="H157">
-        <v>89371789200</v>
+        <v>89277032608</v>
       </c>
       <c r="J157" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="K157" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="L157" t="s">
         <v>17</v>
@@ -7698,7 +7779,7 @@
     </row>
     <row r="158" spans="1:13">
       <c r="A158">
-        <v>558</v>
+        <v>94</v>
       </c>
       <c r="B158">
         <v>2</v>
@@ -7707,7 +7788,7 @@
         <v>0</v>
       </c>
       <c r="D158" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="E158" t="s">
         <v>14</v>
@@ -7719,13 +7800,13 @@
         <v>3</v>
       </c>
       <c r="H158">
-        <v>88462697230</v>
+        <v>88462248431</v>
       </c>
       <c r="J158" t="s">
-        <v>444</v>
+        <v>242</v>
       </c>
       <c r="K158" t="s">
-        <v>445</v>
+        <v>243</v>
       </c>
       <c r="L158" t="s">
         <v>17</v>
@@ -7736,7 +7817,7 @@
     </row>
     <row r="159" spans="1:13">
       <c r="A159">
-        <v>739</v>
+        <v>534</v>
       </c>
       <c r="B159">
         <v>2</v>
@@ -7745,7 +7826,7 @@
         <v>0</v>
       </c>
       <c r="D159" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="E159" t="s">
         <v>14</v>
@@ -7757,13 +7838,16 @@
         <v>3</v>
       </c>
       <c r="H159">
-        <v>88462659039</v>
+        <v>88463315203</v>
+      </c>
+      <c r="I159" t="s">
+        <v>102</v>
       </c>
       <c r="J159" t="s">
-        <v>203</v>
+        <v>450</v>
       </c>
       <c r="K159" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="L159" t="s">
         <v>17</v>
@@ -7774,7 +7858,7 @@
     </row>
     <row r="160" spans="1:13">
       <c r="A160">
-        <v>472</v>
+        <v>692</v>
       </c>
       <c r="B160">
         <v>2</v>
@@ -7783,7 +7867,7 @@
         <v>0</v>
       </c>
       <c r="D160" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="E160" t="s">
         <v>14</v>
@@ -7795,13 +7879,13 @@
         <v>3</v>
       </c>
       <c r="H160">
-        <v>88463739658</v>
-      </c>
-      <c r="I160" t="s">
-        <v>93</v>
+        <v>88463315008</v>
+      </c>
+      <c r="J160" t="s">
+        <v>453</v>
       </c>
       <c r="K160" t="s">
-        <v>109</v>
+        <v>454</v>
       </c>
       <c r="L160" t="s">
         <v>17</v>
@@ -7812,7 +7896,7 @@
     </row>
     <row r="161" spans="1:13">
       <c r="A161">
-        <v>15</v>
+        <v>740</v>
       </c>
       <c r="B161">
         <v>2</v>
@@ -7821,7 +7905,7 @@
         <v>0</v>
       </c>
       <c r="D161" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="E161" t="s">
         <v>14</v>
@@ -7833,13 +7917,13 @@
         <v>3</v>
       </c>
       <c r="H161">
-        <v>88462036291</v>
+        <v>88462659039</v>
       </c>
       <c r="J161" t="s">
-        <v>450</v>
+        <v>212</v>
       </c>
       <c r="K161" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="L161" t="s">
         <v>17</v>
@@ -7850,37 +7934,385 @@
     </row>
     <row r="162" spans="1:13">
       <c r="A162">
+        <v>750</v>
+      </c>
+      <c r="B162">
+        <v>2</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162" t="s">
+        <v>457</v>
+      </c>
+      <c r="E162" t="s">
+        <v>14</v>
+      </c>
+      <c r="F162" t="s">
+        <v>15</v>
+      </c>
+      <c r="G162">
+        <v>3</v>
+      </c>
+      <c r="H162">
+        <v>89277105950</v>
+      </c>
+      <c r="J162" t="s">
+        <v>458</v>
+      </c>
+      <c r="K162" t="s">
+        <v>459</v>
+      </c>
+      <c r="L162" t="s">
+        <v>17</v>
+      </c>
+      <c r="M162" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13">
+      <c r="A163">
+        <v>336</v>
+      </c>
+      <c r="B163">
+        <v>2</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163" t="s">
+        <v>460</v>
+      </c>
+      <c r="E163" t="s">
+        <v>14</v>
+      </c>
+      <c r="F163" t="s">
+        <v>15</v>
+      </c>
+      <c r="G163">
+        <v>3</v>
+      </c>
+      <c r="H163">
+        <v>88469560515</v>
+      </c>
+      <c r="J163" t="s">
+        <v>71</v>
+      </c>
+      <c r="K163" t="s">
+        <v>461</v>
+      </c>
+      <c r="L163" t="s">
+        <v>17</v>
+      </c>
+      <c r="M163" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13">
+      <c r="A164">
+        <v>434</v>
+      </c>
+      <c r="B164">
+        <v>2</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="D164" t="s">
+        <v>462</v>
+      </c>
+      <c r="E164" t="s">
+        <v>14</v>
+      </c>
+      <c r="F164" t="s">
+        <v>15</v>
+      </c>
+      <c r="G164">
+        <v>3</v>
+      </c>
+      <c r="H164">
+        <v>89023382040</v>
+      </c>
+      <c r="J164" t="s">
+        <v>463</v>
+      </c>
+      <c r="K164" t="s">
+        <v>464</v>
+      </c>
+      <c r="L164" t="s">
+        <v>17</v>
+      </c>
+      <c r="M164" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13">
+      <c r="A165">
+        <v>726</v>
+      </c>
+      <c r="B165">
+        <v>2</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="D165" t="s">
+        <v>465</v>
+      </c>
+      <c r="E165" t="s">
+        <v>14</v>
+      </c>
+      <c r="F165" t="s">
+        <v>15</v>
+      </c>
+      <c r="G165">
+        <v>3</v>
+      </c>
+      <c r="H165">
+        <v>88462629835</v>
+      </c>
+      <c r="I165" t="s">
+        <v>466</v>
+      </c>
+      <c r="J165" t="s">
+        <v>27</v>
+      </c>
+      <c r="K165" t="s">
+        <v>467</v>
+      </c>
+      <c r="L165" t="s">
+        <v>17</v>
+      </c>
+      <c r="M165" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13">
+      <c r="A166">
+        <v>539</v>
+      </c>
+      <c r="B166">
+        <v>2</v>
+      </c>
+      <c r="C166">
+        <v>2</v>
+      </c>
+      <c r="D166" t="s">
+        <v>468</v>
+      </c>
+      <c r="E166" t="s">
+        <v>14</v>
+      </c>
+      <c r="F166" t="s">
+        <v>15</v>
+      </c>
+      <c r="G166">
+        <v>3</v>
+      </c>
+      <c r="H166">
+        <v>89371789200</v>
+      </c>
+      <c r="J166" t="s">
+        <v>469</v>
+      </c>
+      <c r="K166" t="s">
+        <v>470</v>
+      </c>
+      <c r="L166" t="s">
+        <v>17</v>
+      </c>
+      <c r="M166" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13">
+      <c r="A167">
+        <v>558</v>
+      </c>
+      <c r="B167">
+        <v>2</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="D167" t="s">
+        <v>471</v>
+      </c>
+      <c r="E167" t="s">
+        <v>14</v>
+      </c>
+      <c r="F167" t="s">
+        <v>15</v>
+      </c>
+      <c r="G167">
+        <v>3</v>
+      </c>
+      <c r="H167">
+        <v>88462697230</v>
+      </c>
+      <c r="J167" t="s">
+        <v>472</v>
+      </c>
+      <c r="K167" t="s">
+        <v>473</v>
+      </c>
+      <c r="L167" t="s">
+        <v>17</v>
+      </c>
+      <c r="M167" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13">
+      <c r="A168">
+        <v>739</v>
+      </c>
+      <c r="B168">
+        <v>2</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+      <c r="D168" t="s">
+        <v>474</v>
+      </c>
+      <c r="E168" t="s">
+        <v>14</v>
+      </c>
+      <c r="F168" t="s">
+        <v>15</v>
+      </c>
+      <c r="G168">
+        <v>3</v>
+      </c>
+      <c r="H168">
+        <v>88462659039</v>
+      </c>
+      <c r="J168" t="s">
+        <v>212</v>
+      </c>
+      <c r="K168" t="s">
+        <v>475</v>
+      </c>
+      <c r="L168" t="s">
+        <v>17</v>
+      </c>
+      <c r="M168" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13">
+      <c r="A169">
+        <v>472</v>
+      </c>
+      <c r="B169">
+        <v>2</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+      <c r="D169" t="s">
+        <v>476</v>
+      </c>
+      <c r="E169" t="s">
+        <v>14</v>
+      </c>
+      <c r="F169" t="s">
+        <v>15</v>
+      </c>
+      <c r="G169">
+        <v>3</v>
+      </c>
+      <c r="H169">
+        <v>88463739658</v>
+      </c>
+      <c r="I169" t="s">
+        <v>102</v>
+      </c>
+      <c r="K169" t="s">
+        <v>118</v>
+      </c>
+      <c r="L169" t="s">
+        <v>17</v>
+      </c>
+      <c r="M169" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13">
+      <c r="A170">
+        <v>15</v>
+      </c>
+      <c r="B170">
+        <v>2</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="D170" t="s">
+        <v>477</v>
+      </c>
+      <c r="E170" t="s">
+        <v>14</v>
+      </c>
+      <c r="F170" t="s">
+        <v>15</v>
+      </c>
+      <c r="G170">
+        <v>3</v>
+      </c>
+      <c r="H170">
+        <v>88462036291</v>
+      </c>
+      <c r="J170" t="s">
+        <v>478</v>
+      </c>
+      <c r="K170" t="s">
+        <v>479</v>
+      </c>
+      <c r="L170" t="s">
+        <v>17</v>
+      </c>
+      <c r="M170" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13">
+      <c r="A171">
         <v>566</v>
       </c>
-      <c r="B162">
-        <v>2</v>
-      </c>
-      <c r="C162">
-        <v>1</v>
-      </c>
-      <c r="D162" t="s">
-        <v>452</v>
-      </c>
-      <c r="E162" t="s">
-        <v>453</v>
-      </c>
-      <c r="F162" t="s">
-        <v>114</v>
-      </c>
-      <c r="G162">
-        <v>0</v>
-      </c>
-      <c r="H162">
+      <c r="B171">
+        <v>2</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+      <c r="D171" t="s">
+        <v>480</v>
+      </c>
+      <c r="E171" t="s">
+        <v>481</v>
+      </c>
+      <c r="F171" t="s">
+        <v>123</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="H171">
         <v>88442385385</v>
       </c>
-      <c r="K162" t="s">
-        <v>454</v>
-      </c>
-      <c r="L162" t="s">
-        <v>17</v>
-      </c>
-      <c r="M162" t="s">
-        <v>116</v>
+      <c r="J171" t="s">
+        <v>482</v>
+      </c>
+      <c r="K171" t="s">
+        <v>483</v>
+      </c>
+      <c r="L171" t="s">
+        <v>17</v>
+      </c>
+      <c r="M171" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
